--- a/pages/aydinlatma.xlsx
+++ b/pages/aydinlatma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EARGE10PC\Desktop\pages\duzenlenen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Depom\Projects\_GithubIO\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0082CDCF-5D77-4E4B-9ADC-6950F77B086C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C535D4-6238-4322-844A-25D3BCFA42A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,9 +207,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Ürün Linki</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>Ver-3</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
   <dimension ref="A1:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -728,10 +728,10 @@
         <v>2</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -749,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>10</v>
@@ -764,7 +764,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K2" s="12"/>
     </row>
@@ -783,7 +783,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>10</v>
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K3" s="12"/>
     </row>
@@ -817,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="12"/>
     </row>
@@ -851,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>10</v>
@@ -866,7 +866,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K5" s="12"/>
     </row>
@@ -885,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>10</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K6" s="12"/>
     </row>
@@ -919,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>11</v>
@@ -934,7 +934,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7" s="12"/>
     </row>
@@ -953,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>11</v>
@@ -968,7 +968,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" s="12"/>
     </row>
@@ -987,7 +987,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>11</v>
@@ -1002,7 +1002,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" s="12"/>
     </row>
@@ -3756,10 +3756,10 @@
         <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>32</v>
@@ -3783,10 +3783,10 @@
         <v>8</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>55</v>
@@ -3806,10 +3806,10 @@
         <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>11</v>
@@ -3832,7 +3832,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="5"/>
       <c r="P5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>54</v>
@@ -3852,10 +3852,10 @@
         <v>20</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>10</v>
@@ -3867,7 +3867,7 @@
         <v>38</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>41</v>
@@ -3878,10 +3878,10 @@
       <c r="N6" s="3"/>
       <c r="O6" s="5"/>
       <c r="P6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3894,10 +3894,10 @@
         <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="5"/>

--- a/pages/aydinlatma.xlsx
+++ b/pages/aydinlatma.xlsx
@@ -5,11 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Proje Listesi" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Kodlama Listesi" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t xml:space="preserve">Sıra</t>
   </si>
@@ -96,147 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">Led Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Bilgisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kullanım Yerleri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Grup Adı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bağlantı Türü</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buzzer Durumu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Major Rev. Bilgisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kodu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kablolu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sürekli Aktif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapıüstü</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tek Seferlik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kat-Kapıüstü</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapıüstü-Kabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kat-Kapıüstü-Kabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revizyon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makine Dairesi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCR</t>
   </si>
 </sst>
 </file>
@@ -344,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -373,7 +231,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -385,41 +243,13 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -612,15 +442,15 @@
   </sheetPr>
   <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="21" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.67"/>
@@ -671,9 +501,9 @@
       <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="str">
-        <f aca="false">"LT"&amp;VLOOKUP(C2,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D2,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E2,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F2,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G2,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H2,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I2,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J2,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>LT01-COP-EMG-H3B0-00-1</v>
+      <c r="B2" s="7" t="e">
+        <f aca="false">"LT"&amp;VLOOKUP(C2,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D2,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E2,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F2,#REF!,2,0)&amp;VLOOKUP(G2,#REF!,2,0)&amp;VLOOKUP(H2,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I2,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J2,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>11</v>
@@ -705,9 +535,9 @@
       <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="str">
-        <f aca="false">"LT"&amp;VLOOKUP(C3,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D3,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E3,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F3,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G3,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H3,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I3,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J3,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>LT02-COP-EMG-H3B0-00-1</v>
+      <c r="B3" s="7" t="e">
+        <f aca="false">"LT"&amp;VLOOKUP(C3,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D3,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E3,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F3,#REF!,2,0)&amp;VLOOKUP(G3,#REF!,2,0)&amp;VLOOKUP(H3,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I3,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J3,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>18</v>
@@ -739,9 +569,9 @@
       <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="str">
-        <f aca="false">"LT"&amp;VLOOKUP(C4,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D4,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E4,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F4,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G4,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H4,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I4,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J4,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>LT03-COP-EMG-H3B0-00-1</v>
+      <c r="B4" s="7" t="e">
+        <f aca="false">"LT"&amp;VLOOKUP(C4,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D4,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E4,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F4,#REF!,2,0)&amp;VLOOKUP(G4,#REF!,2,0)&amp;VLOOKUP(H4,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I4,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J4,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
@@ -773,9 +603,9 @@
       <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="str">
-        <f aca="false">"LT"&amp;VLOOKUP(C5,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D5,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E5,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F5,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G5,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H5,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I5,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J5,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>LT01-COP-LGO-H3B0-00-1</v>
+      <c r="B5" s="7" t="e">
+        <f aca="false">"LT"&amp;VLOOKUP(C5,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D5,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E5,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F5,#REF!,2,0)&amp;VLOOKUP(G5,#REF!,2,0)&amp;VLOOKUP(H5,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I5,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J5,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>11</v>
@@ -807,9 +637,9 @@
       <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="str">
-        <f aca="false">"LT"&amp;VLOOKUP(C6,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D6,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E6,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F6,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G6,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H6,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I6,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J6,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>LT02-COP-LGO-H3B0-00-1</v>
+      <c r="B6" s="7" t="e">
+        <f aca="false">"LT"&amp;VLOOKUP(C6,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D6,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E6,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F6,#REF!,2,0)&amp;VLOOKUP(G6,#REF!,2,0)&amp;VLOOKUP(H6,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I6,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J6,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>18</v>
@@ -841,9 +671,9 @@
       <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="str">
-        <f aca="false">"LT"&amp;VLOOKUP(C7,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D7,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E7,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F7,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G7,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H7,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I7,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J7,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>LT01-COP-TAG-P1B0-00-1</v>
+      <c r="B7" s="7" t="e">
+        <f aca="false">"LT"&amp;VLOOKUP(C7,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D7,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E7,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F7,#REF!,2,0)&amp;VLOOKUP(G7,#REF!,2,0)&amp;VLOOKUP(H7,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I7,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J7,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>11</v>
@@ -875,9 +705,9 @@
       <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="str">
-        <f aca="false">"LT"&amp;VLOOKUP(C8,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D8,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E8,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F8,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G8,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H8,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I8,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J8,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>LT02-COP-TAG-P1B0-00-1</v>
+      <c r="B8" s="7" t="e">
+        <f aca="false">"LT"&amp;VLOOKUP(C8,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D8,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E8,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F8,#REF!,2,0)&amp;VLOOKUP(G8,#REF!,2,0)&amp;VLOOKUP(H8,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I8,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J8,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>18</v>
@@ -909,9 +739,9 @@
       <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="str">
-        <f aca="false">"LT"&amp;VLOOKUP(C9,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D9,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E9,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F9,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G9,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H9,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I9,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J9,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>LT01-COP-ARR-P1B0-00-1</v>
+      <c r="B9" s="7" t="e">
+        <f aca="false">"LT"&amp;VLOOKUP(C9,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D9,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E9,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F9,#REF!,2,0)&amp;VLOOKUP(G9,#REF!,2,0)&amp;VLOOKUP(H9,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I9,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J9,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>11</v>
@@ -944,8 +774,8 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C10,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D10,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E10,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F10,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G10,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H10,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I10,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J10,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C10,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D10,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E10,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F10,#REF!,2,0)&amp;VLOOKUP(G10,#REF!,2,0)&amp;VLOOKUP(H10,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I10,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J10,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="6"/>
@@ -962,8 +792,8 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C11,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D11,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E11,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F11,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G11,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H11,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I11,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J11,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C11,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D11,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E11,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F11,#REF!,2,0)&amp;VLOOKUP(G11,#REF!,2,0)&amp;VLOOKUP(H11,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I11,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J11,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="6"/>
@@ -980,8 +810,8 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C12,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D12,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E12,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F12,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G12,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H12,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I12,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J12,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C12,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D12,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E12,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F12,#REF!,2,0)&amp;VLOOKUP(G12,#REF!,2,0)&amp;VLOOKUP(H12,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I12,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J12,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="6"/>
@@ -998,8 +828,8 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C13,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D13,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E13,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F13,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G13,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H13,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I13,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J13,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C13,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D13,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E13,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F13,#REF!,2,0)&amp;VLOOKUP(G13,#REF!,2,0)&amp;VLOOKUP(H13,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I13,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J13,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="6"/>
@@ -1016,8 +846,8 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C14,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D14,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E14,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F14,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G14,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H14,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I14,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J14,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C14,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D14,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E14,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F14,#REF!,2,0)&amp;VLOOKUP(G14,#REF!,2,0)&amp;VLOOKUP(H14,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I14,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J14,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="6"/>
@@ -1034,8 +864,8 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C15,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D15,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E15,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F15,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G15,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H15,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I15,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J15,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C15,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D15,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E15,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F15,#REF!,2,0)&amp;VLOOKUP(G15,#REF!,2,0)&amp;VLOOKUP(H15,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I15,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J15,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="6"/>
@@ -1052,8 +882,8 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C16,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D16,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E16,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F16,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G16,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H16,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I16,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J16,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C16,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D16,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E16,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F16,#REF!,2,0)&amp;VLOOKUP(G16,#REF!,2,0)&amp;VLOOKUP(H16,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I16,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J16,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="6"/>
@@ -1070,8 +900,8 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C17,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D17,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E17,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F17,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G17,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H17,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I17,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J17,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C17,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D17,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E17,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F17,#REF!,2,0)&amp;VLOOKUP(G17,#REF!,2,0)&amp;VLOOKUP(H17,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I17,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J17,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="6"/>
@@ -1088,8 +918,8 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C18,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D18,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E18,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F18,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G18,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H18,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I18,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J18,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C18,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D18,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E18,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F18,#REF!,2,0)&amp;VLOOKUP(G18,#REF!,2,0)&amp;VLOOKUP(H18,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I18,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J18,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="6"/>
@@ -1106,8 +936,8 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C19,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D19,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E19,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F19,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G19,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H19,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I19,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J19,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C19,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D19,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E19,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F19,#REF!,2,0)&amp;VLOOKUP(G19,#REF!,2,0)&amp;VLOOKUP(H19,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I19,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J19,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="6"/>
@@ -1124,8 +954,8 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C20,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D20,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E20,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F20,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G20,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H20,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I20,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J20,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C20,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D20,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E20,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F20,#REF!,2,0)&amp;VLOOKUP(G20,#REF!,2,0)&amp;VLOOKUP(H20,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I20,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J20,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="6"/>
@@ -1142,8 +972,8 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C21,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D21,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E21,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F21,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G21,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H21,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I21,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J21,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C21,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D21,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E21,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F21,#REF!,2,0)&amp;VLOOKUP(G21,#REF!,2,0)&amp;VLOOKUP(H21,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I21,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J21,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="6"/>
@@ -1160,8 +990,8 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C22,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D22,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E22,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F22,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G22,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H22,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I22,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J22,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C22,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D22,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E22,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F22,#REF!,2,0)&amp;VLOOKUP(G22,#REF!,2,0)&amp;VLOOKUP(H22,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I22,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J22,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="6"/>
@@ -1178,8 +1008,8 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C23,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D23,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E23,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F23,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G23,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H23,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I23,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J23,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C23,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D23,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E23,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F23,#REF!,2,0)&amp;VLOOKUP(G23,#REF!,2,0)&amp;VLOOKUP(H23,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I23,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J23,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="6"/>
@@ -1196,8 +1026,8 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C24,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D24,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E24,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F24,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G24,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H24,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I24,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J24,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C24,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D24,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E24,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F24,#REF!,2,0)&amp;VLOOKUP(G24,#REF!,2,0)&amp;VLOOKUP(H24,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I24,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J24,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="6"/>
@@ -1214,8 +1044,8 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C25,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D25,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E25,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F25,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G25,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H25,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I25,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J25,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C25,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D25,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E25,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F25,#REF!,2,0)&amp;VLOOKUP(G25,#REF!,2,0)&amp;VLOOKUP(H25,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I25,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J25,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="6"/>
@@ -1232,8 +1062,8 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C26,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D26,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E26,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F26,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G26,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H26,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I26,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J26,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C26,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D26,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E26,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F26,#REF!,2,0)&amp;VLOOKUP(G26,#REF!,2,0)&amp;VLOOKUP(H26,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I26,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J26,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="6"/>
@@ -1250,8 +1080,8 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C27,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D27,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E27,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F27,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G27,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H27,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I27,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J27,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C27,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D27,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E27,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F27,#REF!,2,0)&amp;VLOOKUP(G27,#REF!,2,0)&amp;VLOOKUP(H27,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I27,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J27,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="6"/>
@@ -1268,8 +1098,8 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C28,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D28,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E28,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F28,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G28,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H28,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I28,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J28,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C28,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D28,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E28,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F28,#REF!,2,0)&amp;VLOOKUP(G28,#REF!,2,0)&amp;VLOOKUP(H28,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I28,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J28,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="6"/>
@@ -1286,8 +1116,8 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C29,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D29,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E29,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F29,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G29,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H29,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I29,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J29,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C29,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D29,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E29,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F29,#REF!,2,0)&amp;VLOOKUP(G29,#REF!,2,0)&amp;VLOOKUP(H29,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I29,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J29,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="6"/>
@@ -1304,8 +1134,8 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C30,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D30,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E30,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F30,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G30,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H30,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I30,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J30,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C30,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D30,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E30,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F30,#REF!,2,0)&amp;VLOOKUP(G30,#REF!,2,0)&amp;VLOOKUP(H30,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I30,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J30,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="6"/>
@@ -1322,8 +1152,8 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C31,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D31,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E31,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F31,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G31,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H31,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I31,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J31,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C31,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D31,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E31,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F31,#REF!,2,0)&amp;VLOOKUP(G31,#REF!,2,0)&amp;VLOOKUP(H31,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I31,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J31,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="6"/>
@@ -1340,8 +1170,8 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C32,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D32,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E32,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F32,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G32,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H32,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I32,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J32,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C32,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D32,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E32,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F32,#REF!,2,0)&amp;VLOOKUP(G32,#REF!,2,0)&amp;VLOOKUP(H32,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I32,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J32,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="6"/>
@@ -1358,8 +1188,8 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C33,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D33,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E33,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F33,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G33,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H33,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I33,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J33,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C33,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D33,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E33,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F33,#REF!,2,0)&amp;VLOOKUP(G33,#REF!,2,0)&amp;VLOOKUP(H33,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I33,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J33,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="6"/>
@@ -1376,8 +1206,8 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C34,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D34,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E34,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F34,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G34,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H34,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I34,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J34,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C34,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D34,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E34,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F34,#REF!,2,0)&amp;VLOOKUP(G34,#REF!,2,0)&amp;VLOOKUP(H34,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I34,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J34,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="6"/>
@@ -1394,8 +1224,8 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C35,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D35,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E35,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F35,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G35,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H35,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I35,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J35,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C35,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D35,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E35,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F35,#REF!,2,0)&amp;VLOOKUP(G35,#REF!,2,0)&amp;VLOOKUP(H35,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I35,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J35,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="6"/>
@@ -1412,8 +1242,8 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C36,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D36,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E36,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F36,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G36,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H36,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I36,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J36,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C36,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D36,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E36,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F36,#REF!,2,0)&amp;VLOOKUP(G36,#REF!,2,0)&amp;VLOOKUP(H36,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I36,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J36,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="6"/>
@@ -1430,8 +1260,8 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C37,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D37,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E37,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F37,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G37,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H37,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I37,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J37,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C37,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D37,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E37,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F37,#REF!,2,0)&amp;VLOOKUP(G37,#REF!,2,0)&amp;VLOOKUP(H37,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I37,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J37,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="6"/>
@@ -1448,8 +1278,8 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C38,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D38,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E38,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F38,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G38,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H38,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I38,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J38,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C38,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D38,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E38,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F38,#REF!,2,0)&amp;VLOOKUP(G38,#REF!,2,0)&amp;VLOOKUP(H38,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I38,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J38,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="6"/>
@@ -1466,8 +1296,8 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C39,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D39,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E39,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F39,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G39,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H39,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I39,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J39,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C39,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D39,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E39,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F39,#REF!,2,0)&amp;VLOOKUP(G39,#REF!,2,0)&amp;VLOOKUP(H39,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I39,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J39,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="6"/>
@@ -1484,8 +1314,8 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C40,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D40,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E40,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F40,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G40,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H40,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I40,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J40,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C40,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D40,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E40,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F40,#REF!,2,0)&amp;VLOOKUP(G40,#REF!,2,0)&amp;VLOOKUP(H40,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I40,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J40,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="6"/>
@@ -1502,8 +1332,8 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C41,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D41,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E41,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F41,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G41,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H41,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I41,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J41,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C41,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D41,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E41,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F41,#REF!,2,0)&amp;VLOOKUP(G41,#REF!,2,0)&amp;VLOOKUP(H41,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I41,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J41,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="6"/>
@@ -1520,8 +1350,8 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C42,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D42,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E42,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F42,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G42,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H42,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I42,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J42,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C42,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D42,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E42,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F42,#REF!,2,0)&amp;VLOOKUP(G42,#REF!,2,0)&amp;VLOOKUP(H42,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I42,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J42,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="6"/>
@@ -1538,8 +1368,8 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C43,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D43,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E43,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F43,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G43,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H43,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I43,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J43,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C43,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D43,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E43,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F43,#REF!,2,0)&amp;VLOOKUP(G43,#REF!,2,0)&amp;VLOOKUP(H43,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I43,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J43,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="6"/>
@@ -1556,8 +1386,8 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C44,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D44,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E44,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F44,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G44,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H44,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I44,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J44,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C44,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D44,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E44,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F44,#REF!,2,0)&amp;VLOOKUP(G44,#REF!,2,0)&amp;VLOOKUP(H44,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I44,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J44,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="6"/>
@@ -1574,8 +1404,8 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C45,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D45,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E45,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F45,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G45,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H45,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I45,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J45,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C45,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D45,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E45,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F45,#REF!,2,0)&amp;VLOOKUP(G45,#REF!,2,0)&amp;VLOOKUP(H45,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I45,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J45,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="6"/>
@@ -1592,8 +1422,8 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C46,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D46,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E46,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F46,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G46,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H46,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I46,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J46,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C46,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D46,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E46,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F46,#REF!,2,0)&amp;VLOOKUP(G46,#REF!,2,0)&amp;VLOOKUP(H46,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I46,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J46,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="6"/>
@@ -1610,8 +1440,8 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C47,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D47,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E47,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F47,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G47,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H47,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I47,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J47,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C47,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D47,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E47,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F47,#REF!,2,0)&amp;VLOOKUP(G47,#REF!,2,0)&amp;VLOOKUP(H47,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I47,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J47,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="6"/>
@@ -1628,8 +1458,8 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C48,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D48,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E48,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F48,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G48,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H48,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I48,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J48,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C48,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D48,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E48,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F48,#REF!,2,0)&amp;VLOOKUP(G48,#REF!,2,0)&amp;VLOOKUP(H48,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I48,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J48,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="6"/>
@@ -1646,8 +1476,8 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C49,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D49,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E49,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F49,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G49,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H49,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I49,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J49,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C49,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D49,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E49,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F49,#REF!,2,0)&amp;VLOOKUP(G49,#REF!,2,0)&amp;VLOOKUP(H49,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I49,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J49,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="6"/>
@@ -1664,8 +1494,8 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C50,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D50,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E50,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F50,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G50,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H50,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I50,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J50,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C50,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D50,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E50,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F50,#REF!,2,0)&amp;VLOOKUP(G50,#REF!,2,0)&amp;VLOOKUP(H50,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I50,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J50,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="6"/>
@@ -1682,8 +1512,8 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C51,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D51,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E51,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F51,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G51,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H51,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I51,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J51,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C51,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D51,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E51,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F51,#REF!,2,0)&amp;VLOOKUP(G51,#REF!,2,0)&amp;VLOOKUP(H51,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I51,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J51,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="6"/>
@@ -1700,8 +1530,8 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C52,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D52,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E52,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F52,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G52,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H52,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I52,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J52,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C52,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D52,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E52,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F52,#REF!,2,0)&amp;VLOOKUP(G52,#REF!,2,0)&amp;VLOOKUP(H52,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I52,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J52,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="6"/>
@@ -1718,8 +1548,8 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C53,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D53,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E53,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F53,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G53,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H53,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I53,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J53,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C53,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D53,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E53,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F53,#REF!,2,0)&amp;VLOOKUP(G53,#REF!,2,0)&amp;VLOOKUP(H53,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I53,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J53,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="6"/>
@@ -1736,8 +1566,8 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C54,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D54,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E54,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F54,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G54,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H54,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I54,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J54,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C54,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D54,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E54,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F54,#REF!,2,0)&amp;VLOOKUP(G54,#REF!,2,0)&amp;VLOOKUP(H54,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I54,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J54,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="6"/>
@@ -1754,8 +1584,8 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C55,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D55,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E55,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F55,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G55,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H55,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I55,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J55,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C55,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D55,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E55,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F55,#REF!,2,0)&amp;VLOOKUP(G55,#REF!,2,0)&amp;VLOOKUP(H55,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I55,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J55,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="6"/>
@@ -1772,8 +1602,8 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C56,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D56,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E56,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F56,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G56,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H56,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I56,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J56,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C56,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D56,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E56,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F56,#REF!,2,0)&amp;VLOOKUP(G56,#REF!,2,0)&amp;VLOOKUP(H56,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I56,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J56,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="6"/>
@@ -1790,8 +1620,8 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C57,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D57,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E57,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F57,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G57,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H57,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I57,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J57,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C57,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D57,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E57,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F57,#REF!,2,0)&amp;VLOOKUP(G57,#REF!,2,0)&amp;VLOOKUP(H57,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I57,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J57,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="6"/>
@@ -1808,8 +1638,8 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C58,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D58,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E58,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F58,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G58,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H58,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I58,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J58,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C58,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D58,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E58,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F58,#REF!,2,0)&amp;VLOOKUP(G58,#REF!,2,0)&amp;VLOOKUP(H58,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I58,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J58,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="6"/>
@@ -1826,8 +1656,8 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C59,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D59,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E59,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F59,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G59,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H59,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I59,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J59,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C59,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D59,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E59,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F59,#REF!,2,0)&amp;VLOOKUP(G59,#REF!,2,0)&amp;VLOOKUP(H59,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I59,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J59,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="6"/>
@@ -1844,8 +1674,8 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C60,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D60,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E60,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F60,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G60,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H60,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I60,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J60,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C60,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D60,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E60,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F60,#REF!,2,0)&amp;VLOOKUP(G60,#REF!,2,0)&amp;VLOOKUP(H60,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I60,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J60,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="6"/>
@@ -1862,8 +1692,8 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C61,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D61,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E61,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F61,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G61,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H61,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I61,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J61,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C61,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D61,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E61,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F61,#REF!,2,0)&amp;VLOOKUP(G61,#REF!,2,0)&amp;VLOOKUP(H61,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I61,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J61,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="6"/>
@@ -1880,8 +1710,8 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C62,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D62,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E62,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F62,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G62,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H62,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I62,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J62,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C62,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D62,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E62,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F62,#REF!,2,0)&amp;VLOOKUP(G62,#REF!,2,0)&amp;VLOOKUP(H62,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I62,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J62,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="6"/>
@@ -1898,8 +1728,8 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C63,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D63,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E63,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F63,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G63,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H63,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I63,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J63,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C63,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D63,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E63,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F63,#REF!,2,0)&amp;VLOOKUP(G63,#REF!,2,0)&amp;VLOOKUP(H63,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I63,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J63,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="6"/>
@@ -1916,8 +1746,8 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C64,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D64,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E64,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F64,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G64,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H64,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I64,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J64,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C64,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D64,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E64,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F64,#REF!,2,0)&amp;VLOOKUP(G64,#REF!,2,0)&amp;VLOOKUP(H64,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I64,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J64,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="6"/>
@@ -1934,8 +1764,8 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C65,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D65,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E65,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F65,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G65,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H65,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I65,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J65,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C65,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D65,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E65,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F65,#REF!,2,0)&amp;VLOOKUP(G65,#REF!,2,0)&amp;VLOOKUP(H65,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I65,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J65,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="6"/>
@@ -1952,8 +1782,8 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C66,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D66,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E66,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F66,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G66,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H66,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I66,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J66,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C66,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D66,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E66,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F66,#REF!,2,0)&amp;VLOOKUP(G66,#REF!,2,0)&amp;VLOOKUP(H66,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I66,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J66,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="6"/>
@@ -1970,8 +1800,8 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C67,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D67,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E67,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F67,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G67,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H67,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I67,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J67,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C67,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D67,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E67,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F67,#REF!,2,0)&amp;VLOOKUP(G67,#REF!,2,0)&amp;VLOOKUP(H67,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I67,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J67,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="6"/>
@@ -1988,8 +1818,8 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C68,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D68,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E68,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F68,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G68,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H68,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I68,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J68,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C68,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D68,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E68,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F68,#REF!,2,0)&amp;VLOOKUP(G68,#REF!,2,0)&amp;VLOOKUP(H68,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I68,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J68,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="6"/>
@@ -2006,8 +1836,8 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C69,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D69,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E69,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F69,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G69,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H69,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I69,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J69,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C69,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D69,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E69,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F69,#REF!,2,0)&amp;VLOOKUP(G69,#REF!,2,0)&amp;VLOOKUP(H69,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I69,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J69,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="6"/>
@@ -2024,8 +1854,8 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C70,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D70,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E70,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F70,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G70,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H70,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I70,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J70,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C70,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D70,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E70,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F70,#REF!,2,0)&amp;VLOOKUP(G70,#REF!,2,0)&amp;VLOOKUP(H70,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I70,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J70,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="6"/>
@@ -2042,8 +1872,8 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C71,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D71,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E71,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F71,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G71,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H71,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I71,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J71,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C71,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D71,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E71,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F71,#REF!,2,0)&amp;VLOOKUP(G71,#REF!,2,0)&amp;VLOOKUP(H71,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I71,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J71,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="6"/>
@@ -2060,8 +1890,8 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C72,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D72,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E72,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F72,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G72,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H72,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I72,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J72,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C72,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D72,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E72,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F72,#REF!,2,0)&amp;VLOOKUP(G72,#REF!,2,0)&amp;VLOOKUP(H72,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I72,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J72,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="6"/>
@@ -2078,8 +1908,8 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C73,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D73,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E73,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F73,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G73,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H73,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I73,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J73,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C73,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D73,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E73,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F73,#REF!,2,0)&amp;VLOOKUP(G73,#REF!,2,0)&amp;VLOOKUP(H73,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I73,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J73,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="6"/>
@@ -2096,8 +1926,8 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C74,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D74,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E74,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F74,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G74,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H74,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I74,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J74,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C74,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D74,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E74,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F74,#REF!,2,0)&amp;VLOOKUP(G74,#REF!,2,0)&amp;VLOOKUP(H74,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I74,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J74,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="6"/>
@@ -2114,8 +1944,8 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C75,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D75,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E75,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F75,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G75,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H75,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I75,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J75,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C75,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D75,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E75,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F75,#REF!,2,0)&amp;VLOOKUP(G75,#REF!,2,0)&amp;VLOOKUP(H75,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I75,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J75,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="6"/>
@@ -2132,8 +1962,8 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C76,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D76,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E76,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F76,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G76,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H76,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I76,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J76,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C76,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D76,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E76,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F76,#REF!,2,0)&amp;VLOOKUP(G76,#REF!,2,0)&amp;VLOOKUP(H76,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I76,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J76,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="6"/>
@@ -2150,8 +1980,8 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C77,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D77,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E77,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F77,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G77,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H77,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I77,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J77,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C77,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D77,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E77,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F77,#REF!,2,0)&amp;VLOOKUP(G77,#REF!,2,0)&amp;VLOOKUP(H77,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I77,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J77,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="6"/>
@@ -2168,8 +1998,8 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C78,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D78,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E78,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F78,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G78,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H78,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I78,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J78,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C78,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D78,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E78,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F78,#REF!,2,0)&amp;VLOOKUP(G78,#REF!,2,0)&amp;VLOOKUP(H78,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I78,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J78,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="6"/>
@@ -2186,8 +2016,8 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C79,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D79,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E79,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F79,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G79,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H79,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I79,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J79,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C79,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D79,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E79,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F79,#REF!,2,0)&amp;VLOOKUP(G79,#REF!,2,0)&amp;VLOOKUP(H79,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I79,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J79,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="6"/>
@@ -2204,8 +2034,8 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C80,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D80,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E80,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F80,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G80,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H80,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I80,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J80,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C80,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D80,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E80,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F80,#REF!,2,0)&amp;VLOOKUP(G80,#REF!,2,0)&amp;VLOOKUP(H80,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I80,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J80,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="6"/>
@@ -2222,8 +2052,8 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C81,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D81,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E81,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F81,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G81,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H81,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I81,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J81,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C81,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D81,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E81,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F81,#REF!,2,0)&amp;VLOOKUP(G81,#REF!,2,0)&amp;VLOOKUP(H81,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I81,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J81,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="6"/>
@@ -2240,8 +2070,8 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C82,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D82,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E82,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F82,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G82,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H82,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I82,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J82,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C82,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D82,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E82,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F82,#REF!,2,0)&amp;VLOOKUP(G82,#REF!,2,0)&amp;VLOOKUP(H82,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I82,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J82,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="6"/>
@@ -2258,8 +2088,8 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C83,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D83,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E83,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F83,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G83,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H83,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I83,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J83,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C83,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D83,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E83,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F83,#REF!,2,0)&amp;VLOOKUP(G83,#REF!,2,0)&amp;VLOOKUP(H83,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I83,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J83,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="6"/>
@@ -2276,8 +2106,8 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C84,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D84,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E84,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F84,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G84,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H84,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I84,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J84,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C84,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D84,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E84,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F84,#REF!,2,0)&amp;VLOOKUP(G84,#REF!,2,0)&amp;VLOOKUP(H84,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I84,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J84,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="6"/>
@@ -2294,8 +2124,8 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C85,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D85,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E85,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F85,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G85,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H85,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I85,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J85,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C85,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D85,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E85,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F85,#REF!,2,0)&amp;VLOOKUP(G85,#REF!,2,0)&amp;VLOOKUP(H85,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I85,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J85,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="6"/>
@@ -2312,8 +2142,8 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C86,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D86,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E86,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F86,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G86,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H86,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I86,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J86,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C86,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D86,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E86,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F86,#REF!,2,0)&amp;VLOOKUP(G86,#REF!,2,0)&amp;VLOOKUP(H86,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I86,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J86,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="6"/>
@@ -2330,8 +2160,8 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C87,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D87,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E87,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F87,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G87,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H87,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I87,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J87,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C87,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D87,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E87,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F87,#REF!,2,0)&amp;VLOOKUP(G87,#REF!,2,0)&amp;VLOOKUP(H87,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I87,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J87,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="6"/>
@@ -2348,8 +2178,8 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C88,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D88,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E88,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F88,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G88,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H88,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I88,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J88,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C88,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D88,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E88,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F88,#REF!,2,0)&amp;VLOOKUP(G88,#REF!,2,0)&amp;VLOOKUP(H88,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I88,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J88,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="6"/>
@@ -2366,8 +2196,8 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C89,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D89,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E89,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F89,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G89,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H89,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I89,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J89,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C89,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D89,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E89,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F89,#REF!,2,0)&amp;VLOOKUP(G89,#REF!,2,0)&amp;VLOOKUP(H89,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I89,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J89,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="6"/>
@@ -2384,8 +2214,8 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C90,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D90,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E90,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F90,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G90,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H90,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I90,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J90,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C90,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D90,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E90,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F90,#REF!,2,0)&amp;VLOOKUP(G90,#REF!,2,0)&amp;VLOOKUP(H90,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I90,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J90,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="6"/>
@@ -2402,8 +2232,8 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C91,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D91,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E91,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F91,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G91,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H91,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I91,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J91,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C91,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D91,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E91,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F91,#REF!,2,0)&amp;VLOOKUP(G91,#REF!,2,0)&amp;VLOOKUP(H91,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I91,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J91,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="6"/>
@@ -2420,8 +2250,8 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C92,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D92,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E92,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F92,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G92,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H92,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I92,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J92,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C92,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D92,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E92,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F92,#REF!,2,0)&amp;VLOOKUP(G92,#REF!,2,0)&amp;VLOOKUP(H92,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I92,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J92,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="6"/>
@@ -2438,8 +2268,8 @@
         <v>92</v>
       </c>
       <c r="B93" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C93,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D93,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E93,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F93,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G93,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H93,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I93,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J93,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C93,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D93,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E93,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F93,#REF!,2,0)&amp;VLOOKUP(G93,#REF!,2,0)&amp;VLOOKUP(H93,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I93,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J93,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="6"/>
@@ -2456,8 +2286,8 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C94,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D94,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E94,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F94,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G94,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H94,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I94,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J94,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C94,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D94,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E94,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F94,#REF!,2,0)&amp;VLOOKUP(G94,#REF!,2,0)&amp;VLOOKUP(H94,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I94,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J94,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="6"/>
@@ -2474,8 +2304,8 @@
         <v>94</v>
       </c>
       <c r="B95" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C95,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D95,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E95,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F95,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G95,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H95,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I95,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J95,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C95,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D95,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E95,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F95,#REF!,2,0)&amp;VLOOKUP(G95,#REF!,2,0)&amp;VLOOKUP(H95,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I95,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J95,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="6"/>
@@ -2492,8 +2322,8 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C96,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D96,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E96,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F96,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G96,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H96,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I96,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J96,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C96,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D96,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E96,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F96,#REF!,2,0)&amp;VLOOKUP(G96,#REF!,2,0)&amp;VLOOKUP(H96,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I96,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J96,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="6"/>
@@ -2510,8 +2340,8 @@
         <v>96</v>
       </c>
       <c r="B97" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C97,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D97,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E97,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F97,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G97,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H97,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I97,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J97,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C97,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D97,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E97,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F97,#REF!,2,0)&amp;VLOOKUP(G97,#REF!,2,0)&amp;VLOOKUP(H97,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I97,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J97,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="6"/>
@@ -2528,8 +2358,8 @@
         <v>97</v>
       </c>
       <c r="B98" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C98,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D98,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E98,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F98,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G98,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H98,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I98,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J98,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C98,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D98,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E98,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F98,#REF!,2,0)&amp;VLOOKUP(G98,#REF!,2,0)&amp;VLOOKUP(H98,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I98,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J98,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="6"/>
@@ -2546,8 +2376,8 @@
         <v>98</v>
       </c>
       <c r="B99" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C99,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D99,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E99,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F99,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G99,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H99,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I99,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J99,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C99,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D99,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E99,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F99,#REF!,2,0)&amp;VLOOKUP(G99,#REF!,2,0)&amp;VLOOKUP(H99,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I99,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J99,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="6"/>
@@ -2564,8 +2394,8 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C100,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D100,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E100,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F100,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G100,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H100,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I100,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J100,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C100,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D100,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E100,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F100,#REF!,2,0)&amp;VLOOKUP(G100,#REF!,2,0)&amp;VLOOKUP(H100,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I100,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J100,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="6"/>
@@ -2582,8 +2412,8 @@
         <v>100</v>
       </c>
       <c r="B101" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C101,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D101,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E101,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F101,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G101,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H101,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I101,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J101,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C101,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D101,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E101,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F101,#REF!,2,0)&amp;VLOOKUP(G101,#REF!,2,0)&amp;VLOOKUP(H101,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I101,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J101,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="6"/>
@@ -2600,8 +2430,8 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C102,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D102,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E102,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F102,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G102,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H102,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I102,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J102,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C102,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D102,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E102,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F102,#REF!,2,0)&amp;VLOOKUP(G102,#REF!,2,0)&amp;VLOOKUP(H102,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I102,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J102,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="6"/>
@@ -2618,8 +2448,8 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C103,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D103,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E103,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F103,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G103,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H103,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I103,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J103,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C103,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D103,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E103,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F103,#REF!,2,0)&amp;VLOOKUP(G103,#REF!,2,0)&amp;VLOOKUP(H103,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I103,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J103,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="6"/>
@@ -2636,8 +2466,8 @@
         <v>103</v>
       </c>
       <c r="B104" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C104,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D104,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E104,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F104,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G104,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H104,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I104,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J104,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C104,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D104,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E104,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F104,#REF!,2,0)&amp;VLOOKUP(G104,#REF!,2,0)&amp;VLOOKUP(H104,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I104,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J104,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="6"/>
@@ -2654,8 +2484,8 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C105,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D105,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E105,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F105,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G105,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H105,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I105,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J105,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C105,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D105,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E105,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F105,#REF!,2,0)&amp;VLOOKUP(G105,#REF!,2,0)&amp;VLOOKUP(H105,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I105,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J105,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="6"/>
@@ -2672,8 +2502,8 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C106,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D106,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E106,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F106,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G106,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H106,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I106,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J106,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C106,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D106,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E106,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F106,#REF!,2,0)&amp;VLOOKUP(G106,#REF!,2,0)&amp;VLOOKUP(H106,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I106,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J106,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="6"/>
@@ -2690,8 +2520,8 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C107,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D107,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E107,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F107,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G107,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H107,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I107,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J107,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C107,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D107,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E107,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F107,#REF!,2,0)&amp;VLOOKUP(G107,#REF!,2,0)&amp;VLOOKUP(H107,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I107,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J107,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C107" s="11"/>
       <c r="D107" s="6"/>
@@ -2708,8 +2538,8 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C108,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D108,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E108,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F108,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G108,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H108,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I108,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J108,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C108,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D108,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E108,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F108,#REF!,2,0)&amp;VLOOKUP(G108,#REF!,2,0)&amp;VLOOKUP(H108,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I108,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J108,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="6"/>
@@ -2726,8 +2556,8 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C109,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D109,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E109,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F109,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G109,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H109,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I109,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J109,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C109,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D109,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E109,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F109,#REF!,2,0)&amp;VLOOKUP(G109,#REF!,2,0)&amp;VLOOKUP(H109,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I109,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J109,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C109" s="11"/>
       <c r="D109" s="6"/>
@@ -2744,8 +2574,8 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C110,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D110,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E110,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F110,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G110,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H110,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I110,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J110,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C110,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D110,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E110,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F110,#REF!,2,0)&amp;VLOOKUP(G110,#REF!,2,0)&amp;VLOOKUP(H110,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I110,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J110,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="6"/>
@@ -2762,8 +2592,8 @@
         <v>110</v>
       </c>
       <c r="B111" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C111,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D111,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E111,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F111,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G111,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H111,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I111,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J111,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C111,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D111,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E111,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F111,#REF!,2,0)&amp;VLOOKUP(G111,#REF!,2,0)&amp;VLOOKUP(H111,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I111,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J111,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="6"/>
@@ -2780,8 +2610,8 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C112,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D112,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E112,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F112,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G112,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H112,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I112,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J112,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C112,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D112,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E112,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F112,#REF!,2,0)&amp;VLOOKUP(G112,#REF!,2,0)&amp;VLOOKUP(H112,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I112,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J112,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="6"/>
@@ -2798,8 +2628,8 @@
         <v>112</v>
       </c>
       <c r="B113" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C113,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D113,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E113,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F113,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G113,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H113,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I113,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J113,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C113,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D113,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E113,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F113,#REF!,2,0)&amp;VLOOKUP(G113,#REF!,2,0)&amp;VLOOKUP(H113,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I113,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J113,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C113" s="11"/>
       <c r="D113" s="6"/>
@@ -2816,8 +2646,8 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C114,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D114,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E114,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F114,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G114,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H114,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I114,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J114,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C114,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D114,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E114,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F114,#REF!,2,0)&amp;VLOOKUP(G114,#REF!,2,0)&amp;VLOOKUP(H114,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I114,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J114,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="6"/>
@@ -2834,8 +2664,8 @@
         <v>114</v>
       </c>
       <c r="B115" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C115,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D115,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E115,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F115,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G115,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H115,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I115,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J115,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C115,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D115,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E115,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F115,#REF!,2,0)&amp;VLOOKUP(G115,#REF!,2,0)&amp;VLOOKUP(H115,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I115,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J115,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C115" s="11"/>
       <c r="D115" s="6"/>
@@ -2852,8 +2682,8 @@
         <v>115</v>
       </c>
       <c r="B116" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C116,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D116,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E116,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F116,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G116,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H116,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I116,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J116,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C116,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D116,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E116,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F116,#REF!,2,0)&amp;VLOOKUP(G116,#REF!,2,0)&amp;VLOOKUP(H116,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I116,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J116,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="6"/>
@@ -2870,8 +2700,8 @@
         <v>116</v>
       </c>
       <c r="B117" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C117,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D117,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E117,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F117,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G117,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H117,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I117,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J117,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C117,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D117,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E117,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F117,#REF!,2,0)&amp;VLOOKUP(G117,#REF!,2,0)&amp;VLOOKUP(H117,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I117,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J117,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C117" s="11"/>
       <c r="D117" s="6"/>
@@ -2888,8 +2718,8 @@
         <v>117</v>
       </c>
       <c r="B118" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C118,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D118,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E118,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F118,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G118,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H118,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I118,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J118,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C118,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D118,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E118,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F118,#REF!,2,0)&amp;VLOOKUP(G118,#REF!,2,0)&amp;VLOOKUP(H118,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I118,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J118,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="6"/>
@@ -2906,8 +2736,8 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C119,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D119,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E119,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F119,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G119,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H119,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I119,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J119,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C119,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D119,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E119,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F119,#REF!,2,0)&amp;VLOOKUP(G119,#REF!,2,0)&amp;VLOOKUP(H119,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I119,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J119,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C119" s="11"/>
       <c r="D119" s="6"/>
@@ -2924,8 +2754,8 @@
         <v>119</v>
       </c>
       <c r="B120" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C120,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D120,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E120,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F120,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G120,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H120,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I120,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J120,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C120,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D120,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E120,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F120,#REF!,2,0)&amp;VLOOKUP(G120,#REF!,2,0)&amp;VLOOKUP(H120,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I120,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J120,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="6"/>
@@ -2942,8 +2772,8 @@
         <v>120</v>
       </c>
       <c r="B121" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C121,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D121,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E121,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F121,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G121,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H121,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I121,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J121,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C121,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D121,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E121,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F121,#REF!,2,0)&amp;VLOOKUP(G121,#REF!,2,0)&amp;VLOOKUP(H121,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I121,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J121,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C121" s="11"/>
       <c r="D121" s="6"/>
@@ -2960,8 +2790,8 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C122,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D122,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E122,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F122,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G122,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H122,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I122,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J122,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C122,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D122,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E122,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F122,#REF!,2,0)&amp;VLOOKUP(G122,#REF!,2,0)&amp;VLOOKUP(H122,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I122,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J122,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="6"/>
@@ -2978,8 +2808,8 @@
         <v>122</v>
       </c>
       <c r="B123" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C123,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D123,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E123,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F123,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G123,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H123,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I123,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J123,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C123,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D123,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E123,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F123,#REF!,2,0)&amp;VLOOKUP(G123,#REF!,2,0)&amp;VLOOKUP(H123,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I123,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J123,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C123" s="11"/>
       <c r="D123" s="6"/>
@@ -2996,8 +2826,8 @@
         <v>123</v>
       </c>
       <c r="B124" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C124,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D124,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E124,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F124,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G124,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H124,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I124,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J124,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C124,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D124,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E124,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F124,#REF!,2,0)&amp;VLOOKUP(G124,#REF!,2,0)&amp;VLOOKUP(H124,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I124,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J124,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="6"/>
@@ -3014,8 +2844,8 @@
         <v>124</v>
       </c>
       <c r="B125" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C125,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D125,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E125,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F125,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G125,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H125,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I125,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J125,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C125,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D125,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E125,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F125,#REF!,2,0)&amp;VLOOKUP(G125,#REF!,2,0)&amp;VLOOKUP(H125,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I125,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J125,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C125" s="11"/>
       <c r="D125" s="6"/>
@@ -3032,8 +2862,8 @@
         <v>125</v>
       </c>
       <c r="B126" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C126,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D126,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E126,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F126,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G126,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H126,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I126,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J126,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C126,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D126,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E126,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F126,#REF!,2,0)&amp;VLOOKUP(G126,#REF!,2,0)&amp;VLOOKUP(H126,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I126,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J126,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="6"/>
@@ -3050,8 +2880,8 @@
         <v>126</v>
       </c>
       <c r="B127" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C127,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D127,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E127,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F127,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G127,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H127,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I127,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J127,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C127,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D127,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E127,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F127,#REF!,2,0)&amp;VLOOKUP(G127,#REF!,2,0)&amp;VLOOKUP(H127,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I127,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J127,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C127" s="11"/>
       <c r="D127" s="6"/>
@@ -3068,8 +2898,8 @@
         <v>127</v>
       </c>
       <c r="B128" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C128,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D128,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E128,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F128,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G128,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H128,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I128,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J128,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C128,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D128,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E128,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F128,#REF!,2,0)&amp;VLOOKUP(G128,#REF!,2,0)&amp;VLOOKUP(H128,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I128,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J128,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="6"/>
@@ -3086,8 +2916,8 @@
         <v>128</v>
       </c>
       <c r="B129" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C129,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D129,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E129,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F129,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G129,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H129,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I129,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J129,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C129,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D129,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E129,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F129,#REF!,2,0)&amp;VLOOKUP(G129,#REF!,2,0)&amp;VLOOKUP(H129,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I129,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J129,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C129" s="11"/>
       <c r="D129" s="6"/>
@@ -3104,8 +2934,8 @@
         <v>129</v>
       </c>
       <c r="B130" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C130,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D130,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E130,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F130,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G130,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H130,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I130,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J130,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C130,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D130,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E130,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F130,#REF!,2,0)&amp;VLOOKUP(G130,#REF!,2,0)&amp;VLOOKUP(H130,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I130,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J130,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="6"/>
@@ -3122,8 +2952,8 @@
         <v>130</v>
       </c>
       <c r="B131" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C131,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D131,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E131,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F131,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G131,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H131,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I131,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J131,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C131,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D131,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E131,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F131,#REF!,2,0)&amp;VLOOKUP(G131,#REF!,2,0)&amp;VLOOKUP(H131,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I131,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J131,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C131" s="11"/>
       <c r="D131" s="6"/>
@@ -3140,8 +2970,8 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C132,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D132,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E132,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F132,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G132,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H132,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I132,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J132,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C132,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D132,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E132,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F132,#REF!,2,0)&amp;VLOOKUP(G132,#REF!,2,0)&amp;VLOOKUP(H132,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I132,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J132,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C132" s="11"/>
       <c r="D132" s="6"/>
@@ -3158,8 +2988,8 @@
         <v>132</v>
       </c>
       <c r="B133" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C133,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D133,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E133,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F133,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G133,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H133,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I133,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J133,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C133,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D133,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E133,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F133,#REF!,2,0)&amp;VLOOKUP(G133,#REF!,2,0)&amp;VLOOKUP(H133,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I133,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J133,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C133" s="11"/>
       <c r="D133" s="6"/>
@@ -3176,8 +3006,8 @@
         <v>133</v>
       </c>
       <c r="B134" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C134,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D134,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E134,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F134,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G134,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H134,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I134,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J134,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C134,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D134,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E134,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F134,#REF!,2,0)&amp;VLOOKUP(G134,#REF!,2,0)&amp;VLOOKUP(H134,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I134,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J134,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="6"/>
@@ -3194,8 +3024,8 @@
         <v>134</v>
       </c>
       <c r="B135" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C135,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D135,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E135,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F135,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G135,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H135,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I135,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J135,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C135,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D135,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E135,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F135,#REF!,2,0)&amp;VLOOKUP(G135,#REF!,2,0)&amp;VLOOKUP(H135,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I135,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J135,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C135" s="11"/>
       <c r="D135" s="6"/>
@@ -3212,8 +3042,8 @@
         <v>135</v>
       </c>
       <c r="B136" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C136,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D136,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E136,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F136,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G136,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H136,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I136,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J136,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C136,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D136,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E136,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F136,#REF!,2,0)&amp;VLOOKUP(G136,#REF!,2,0)&amp;VLOOKUP(H136,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I136,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J136,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="6"/>
@@ -3230,8 +3060,8 @@
         <v>136</v>
       </c>
       <c r="B137" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C137,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D137,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E137,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F137,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G137,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H137,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I137,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J137,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C137,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D137,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E137,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F137,#REF!,2,0)&amp;VLOOKUP(G137,#REF!,2,0)&amp;VLOOKUP(H137,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I137,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J137,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C137" s="11"/>
       <c r="D137" s="6"/>
@@ -3248,8 +3078,8 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C138,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D138,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E138,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F138,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G138,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H138,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I138,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J138,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C138,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D138,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E138,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F138,#REF!,2,0)&amp;VLOOKUP(G138,#REF!,2,0)&amp;VLOOKUP(H138,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I138,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J138,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="6"/>
@@ -3266,8 +3096,8 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C139,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D139,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E139,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F139,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G139,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H139,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I139,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J139,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C139,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D139,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E139,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F139,#REF!,2,0)&amp;VLOOKUP(G139,#REF!,2,0)&amp;VLOOKUP(H139,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I139,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J139,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="6"/>
@@ -3284,8 +3114,8 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C140,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D140,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E140,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F140,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G140,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H140,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I140,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J140,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C140,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D140,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E140,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F140,#REF!,2,0)&amp;VLOOKUP(G140,#REF!,2,0)&amp;VLOOKUP(H140,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I140,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J140,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="6"/>
@@ -3302,8 +3132,8 @@
         <v>140</v>
       </c>
       <c r="B141" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C141,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D141,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E141,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F141,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G141,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H141,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I141,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J141,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C141,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D141,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E141,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F141,#REF!,2,0)&amp;VLOOKUP(G141,#REF!,2,0)&amp;VLOOKUP(H141,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I141,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J141,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C141" s="11"/>
       <c r="D141" s="6"/>
@@ -3320,8 +3150,8 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C142,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D142,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E142,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F142,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G142,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H142,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I142,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J142,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C142,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D142,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E142,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F142,#REF!,2,0)&amp;VLOOKUP(G142,#REF!,2,0)&amp;VLOOKUP(H142,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I142,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J142,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C142" s="11"/>
       <c r="D142" s="6"/>
@@ -3338,8 +3168,8 @@
         <v>142</v>
       </c>
       <c r="B143" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C143,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D143,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E143,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F143,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G143,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H143,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I143,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J143,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C143,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D143,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E143,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F143,#REF!,2,0)&amp;VLOOKUP(G143,#REF!,2,0)&amp;VLOOKUP(H143,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I143,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J143,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C143" s="11"/>
       <c r="D143" s="6"/>
@@ -3356,8 +3186,8 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C144,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D144,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E144,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F144,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G144,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H144,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I144,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J144,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C144,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D144,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E144,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F144,#REF!,2,0)&amp;VLOOKUP(G144,#REF!,2,0)&amp;VLOOKUP(H144,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I144,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J144,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C144" s="11"/>
       <c r="D144" s="6"/>
@@ -3374,8 +3204,8 @@
         <v>144</v>
       </c>
       <c r="B145" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C145,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D145,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E145,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F145,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G145,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H145,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I145,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J145,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C145,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D145,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E145,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F145,#REF!,2,0)&amp;VLOOKUP(G145,#REF!,2,0)&amp;VLOOKUP(H145,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I145,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J145,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C145" s="11"/>
       <c r="D145" s="6"/>
@@ -3392,8 +3222,8 @@
         <v>145</v>
       </c>
       <c r="B146" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C146,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D146,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E146,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F146,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G146,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H146,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I146,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J146,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C146,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D146,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E146,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F146,#REF!,2,0)&amp;VLOOKUP(G146,#REF!,2,0)&amp;VLOOKUP(H146,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I146,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J146,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C146" s="11"/>
       <c r="D146" s="6"/>
@@ -3410,8 +3240,8 @@
         <v>146</v>
       </c>
       <c r="B147" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C147,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D147,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E147,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F147,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G147,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H147,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I147,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J147,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C147,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D147,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E147,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F147,#REF!,2,0)&amp;VLOOKUP(G147,#REF!,2,0)&amp;VLOOKUP(H147,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I147,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J147,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C147" s="11"/>
       <c r="D147" s="6"/>
@@ -3428,8 +3258,8 @@
         <v>147</v>
       </c>
       <c r="B148" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C148,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D148,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E148,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F148,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G148,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H148,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I148,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J148,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C148,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D148,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E148,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F148,#REF!,2,0)&amp;VLOOKUP(G148,#REF!,2,0)&amp;VLOOKUP(H148,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I148,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J148,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="6"/>
@@ -3446,8 +3276,8 @@
         <v>148</v>
       </c>
       <c r="B149" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C149,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D149,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E149,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F149,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G149,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H149,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I149,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J149,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C149,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D149,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E149,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F149,#REF!,2,0)&amp;VLOOKUP(G149,#REF!,2,0)&amp;VLOOKUP(H149,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I149,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J149,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C149" s="11"/>
       <c r="D149" s="6"/>
@@ -3464,8 +3294,8 @@
         <v>149</v>
       </c>
       <c r="B150" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C150,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D150,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E150,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F150,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G150,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H150,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I150,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J150,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C150,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D150,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E150,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F150,#REF!,2,0)&amp;VLOOKUP(G150,#REF!,2,0)&amp;VLOOKUP(H150,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I150,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J150,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C150" s="11"/>
       <c r="D150" s="6"/>
@@ -3482,8 +3312,8 @@
         <v>150</v>
       </c>
       <c r="B151" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C151,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D151,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E151,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F151,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G151,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H151,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I151,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J151,'Kodlama Listesi'!P:Q,2,0)</f>
-        <v>#N/A</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C151,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D151,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E151,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F151,#REF!,2,0)&amp;VLOOKUP(G151,#REF!,2,0)&amp;VLOOKUP(H151,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I151,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J151,#REF!,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="C151" s="11"/>
       <c r="D151" s="6"/>
@@ -3499,35 +3329,35 @@
   <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <dataValidations count="8">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D7 D10:D1151" type="list">
-      <formula1>'Kodlama Listesi'!$D$4:$D$11</formula1>
+      <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E7 E10:E1151" type="list">
-      <formula1>'Kodlama Listesi'!$F$4:$F$7</formula1>
+      <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F7 F10:F1151" type="list">
-      <formula1>'Kodlama Listesi'!$H$4:$H$6</formula1>
+      <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G7 G10:G1151" type="list">
-      <formula1>'Kodlama Listesi'!$J$4:$J$6</formula1>
+      <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H7 H10:H1151" type="list">
-      <formula1>'Kodlama Listesi'!$L$4:$L$6</formula1>
+      <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I2:I7 I10:I1151" type="list">
-      <formula1>'Kodlama Listesi'!$N$4</formula1>
+      <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C1151" type="list">
-      <formula1>'Kodlama Listesi'!$B$4:$B$6</formula1>
+      <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J2:J1151" type="list">
-      <formula1>'Kodlama Listesi'!$P$4:$P$6</formula1>
+      <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3539,420 +3369,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Sayfa &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:S11"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.4453125" defaultRowHeight="21" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="8.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="12" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="13" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="12" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="13" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="12" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="13" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="12" width="12.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="13" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="12" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="13" width="6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="12" width="15.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="13" width="6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="18" style="12" width="15.44"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="18"/>
-    </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="18"/>
-    </row>
-    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
-    </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="18"/>
-    </row>
-    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C1011 M4:M1011 O4:O1011" type="custom">
-      <formula1>AND(COUNTIF(C:C,C4)=1, LEN(C4)=2 )</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:E1011 G4:G1011" type="custom">
-      <formula1>AND(COUNTIF(E:E,E4)=1, LEN(E4)=3 )</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I4:I1011 K4:K1011 Q4:Q1011" type="custom">
-      <formula1>AND(COUNTIF(I:I,I4)=1, LEN(I4)=1 )</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/pages/aydinlatma.xlsx
+++ b/pages/aydinlatma.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Proje Listesi" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Kodlama Listesi" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="79">
   <si>
     <t xml:space="preserve">Sıra</t>
   </si>
@@ -95,6 +96,168 @@
   </si>
   <si>
     <t xml:space="preserve">Led Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Bilgisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kullanım Yerleri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Grup Adı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bağlantı Türü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buzzer Durumu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Rev. Bilgisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kodu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kablolu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sürekli Aktif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapıüstü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tek Seferlik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kat-Kapıüstü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapıüstü-Kabin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kat-Kapıüstü-Kabin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revizyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makine Dairesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCR</t>
   </si>
 </sst>
 </file>
@@ -202,7 +365,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -250,6 +413,34 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -442,8 +633,8 @@
   </sheetPr>
   <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="21" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -501,9 +692,9 @@
       <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C2,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D2,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E2,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F2,#REF!,2,0)&amp;VLOOKUP(G2,#REF!,2,0)&amp;VLOOKUP(H2,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I2,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J2,#REF!,2,0)</f>
-        <v>#REF!</v>
+      <c r="B2" s="7" t="str">
+        <f aca="false">"LT"&amp;VLOOKUP(C2,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D2,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E2,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F2,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G2,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H2,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I2,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J2,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>LT01-COP-EMG-H3B0-00-1</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>11</v>
@@ -535,9 +726,9 @@
       <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C3,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D3,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E3,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F3,#REF!,2,0)&amp;VLOOKUP(G3,#REF!,2,0)&amp;VLOOKUP(H3,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I3,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J3,#REF!,2,0)</f>
-        <v>#REF!</v>
+      <c r="B3" s="7" t="str">
+        <f aca="false">"LT"&amp;VLOOKUP(C3,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D3,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E3,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F3,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G3,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H3,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I3,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J3,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>LT02-COP-EMG-H3B0-00-1</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>18</v>
@@ -569,9 +760,9 @@
       <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C4,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D4,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E4,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F4,#REF!,2,0)&amp;VLOOKUP(G4,#REF!,2,0)&amp;VLOOKUP(H4,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I4,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J4,#REF!,2,0)</f>
-        <v>#REF!</v>
+      <c r="B4" s="7" t="str">
+        <f aca="false">"LT"&amp;VLOOKUP(C4,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D4,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E4,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F4,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G4,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H4,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I4,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J4,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>LT03-COP-EMG-H3B0-00-1</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
@@ -603,9 +794,9 @@
       <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C5,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D5,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E5,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F5,#REF!,2,0)&amp;VLOOKUP(G5,#REF!,2,0)&amp;VLOOKUP(H5,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I5,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J5,#REF!,2,0)</f>
-        <v>#REF!</v>
+      <c r="B5" s="7" t="str">
+        <f aca="false">"LT"&amp;VLOOKUP(C5,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D5,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E5,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F5,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G5,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H5,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I5,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J5,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>LT01-COP-LGO-H3B0-00-1</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>11</v>
@@ -637,9 +828,9 @@
       <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C6,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D6,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E6,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F6,#REF!,2,0)&amp;VLOOKUP(G6,#REF!,2,0)&amp;VLOOKUP(H6,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I6,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J6,#REF!,2,0)</f>
-        <v>#REF!</v>
+      <c r="B6" s="7" t="str">
+        <f aca="false">"LT"&amp;VLOOKUP(C6,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D6,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E6,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F6,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G6,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H6,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I6,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J6,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>LT02-COP-LGO-H3B0-00-1</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>18</v>
@@ -671,9 +862,9 @@
       <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C7,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D7,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E7,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F7,#REF!,2,0)&amp;VLOOKUP(G7,#REF!,2,0)&amp;VLOOKUP(H7,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I7,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J7,#REF!,2,0)</f>
-        <v>#REF!</v>
+      <c r="B7" s="7" t="str">
+        <f aca="false">"LT"&amp;VLOOKUP(C7,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D7,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E7,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F7,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G7,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H7,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I7,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J7,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>LT01-COP-TAG-P1B0-00-1</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>11</v>
@@ -705,9 +896,9 @@
       <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C8,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D8,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E8,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F8,#REF!,2,0)&amp;VLOOKUP(G8,#REF!,2,0)&amp;VLOOKUP(H8,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I8,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J8,#REF!,2,0)</f>
-        <v>#REF!</v>
+      <c r="B8" s="7" t="str">
+        <f aca="false">"LT"&amp;VLOOKUP(C8,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D8,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E8,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F8,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G8,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H8,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I8,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J8,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>LT02-COP-TAG-P1B0-00-1</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>18</v>
@@ -739,9 +930,9 @@
       <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C9,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D9,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E9,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F9,#REF!,2,0)&amp;VLOOKUP(G9,#REF!,2,0)&amp;VLOOKUP(H9,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I9,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J9,#REF!,2,0)</f>
-        <v>#REF!</v>
+      <c r="B9" s="7" t="str">
+        <f aca="false">"LT"&amp;VLOOKUP(C9,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D9,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E9,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F9,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G9,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H9,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I9,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J9,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>LT01-COP-ARR-P1B0-00-1</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>11</v>
@@ -774,8 +965,8 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C10,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D10,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E10,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F10,#REF!,2,0)&amp;VLOOKUP(G10,#REF!,2,0)&amp;VLOOKUP(H10,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I10,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J10,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C10,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D10,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E10,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F10,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G10,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H10,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I10,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J10,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="6"/>
@@ -792,8 +983,8 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C11,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D11,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E11,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F11,#REF!,2,0)&amp;VLOOKUP(G11,#REF!,2,0)&amp;VLOOKUP(H11,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I11,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J11,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C11,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D11,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E11,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F11,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G11,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H11,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I11,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J11,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="6"/>
@@ -810,8 +1001,8 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C12,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D12,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E12,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F12,#REF!,2,0)&amp;VLOOKUP(G12,#REF!,2,0)&amp;VLOOKUP(H12,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I12,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J12,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C12,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D12,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E12,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F12,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G12,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H12,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I12,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J12,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="6"/>
@@ -828,8 +1019,8 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C13,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D13,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E13,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F13,#REF!,2,0)&amp;VLOOKUP(G13,#REF!,2,0)&amp;VLOOKUP(H13,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I13,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J13,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C13,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D13,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E13,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F13,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G13,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H13,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I13,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J13,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="6"/>
@@ -846,8 +1037,8 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C14,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D14,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E14,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F14,#REF!,2,0)&amp;VLOOKUP(G14,#REF!,2,0)&amp;VLOOKUP(H14,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I14,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J14,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C14,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D14,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E14,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F14,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G14,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H14,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I14,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J14,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="6"/>
@@ -864,8 +1055,8 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C15,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D15,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E15,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F15,#REF!,2,0)&amp;VLOOKUP(G15,#REF!,2,0)&amp;VLOOKUP(H15,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I15,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J15,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C15,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D15,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E15,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F15,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G15,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H15,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I15,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J15,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="6"/>
@@ -882,8 +1073,8 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C16,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D16,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E16,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F16,#REF!,2,0)&amp;VLOOKUP(G16,#REF!,2,0)&amp;VLOOKUP(H16,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I16,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J16,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C16,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D16,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E16,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F16,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G16,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H16,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I16,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J16,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="6"/>
@@ -900,8 +1091,8 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C17,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D17,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E17,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F17,#REF!,2,0)&amp;VLOOKUP(G17,#REF!,2,0)&amp;VLOOKUP(H17,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I17,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J17,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C17,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D17,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E17,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F17,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G17,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H17,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I17,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J17,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="6"/>
@@ -918,8 +1109,8 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C18,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D18,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E18,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F18,#REF!,2,0)&amp;VLOOKUP(G18,#REF!,2,0)&amp;VLOOKUP(H18,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I18,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J18,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C18,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D18,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E18,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F18,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G18,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H18,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I18,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J18,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="6"/>
@@ -936,8 +1127,8 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C19,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D19,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E19,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F19,#REF!,2,0)&amp;VLOOKUP(G19,#REF!,2,0)&amp;VLOOKUP(H19,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I19,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J19,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C19,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D19,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E19,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F19,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G19,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H19,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I19,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J19,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="6"/>
@@ -954,8 +1145,8 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C20,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D20,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E20,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F20,#REF!,2,0)&amp;VLOOKUP(G20,#REF!,2,0)&amp;VLOOKUP(H20,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I20,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J20,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C20,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D20,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E20,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F20,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G20,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H20,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I20,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J20,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="6"/>
@@ -972,8 +1163,8 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C21,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D21,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E21,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F21,#REF!,2,0)&amp;VLOOKUP(G21,#REF!,2,0)&amp;VLOOKUP(H21,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I21,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J21,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C21,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D21,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E21,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F21,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G21,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H21,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I21,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J21,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="6"/>
@@ -990,8 +1181,8 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C22,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D22,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E22,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F22,#REF!,2,0)&amp;VLOOKUP(G22,#REF!,2,0)&amp;VLOOKUP(H22,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I22,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J22,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C22,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D22,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E22,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F22,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G22,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H22,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I22,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J22,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="6"/>
@@ -1008,8 +1199,8 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C23,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D23,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E23,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F23,#REF!,2,0)&amp;VLOOKUP(G23,#REF!,2,0)&amp;VLOOKUP(H23,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I23,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J23,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C23,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D23,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E23,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F23,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G23,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H23,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I23,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J23,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="6"/>
@@ -1026,8 +1217,8 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C24,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D24,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E24,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F24,#REF!,2,0)&amp;VLOOKUP(G24,#REF!,2,0)&amp;VLOOKUP(H24,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I24,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J24,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C24,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D24,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E24,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F24,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G24,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H24,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I24,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J24,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="6"/>
@@ -1044,8 +1235,8 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C25,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D25,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E25,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F25,#REF!,2,0)&amp;VLOOKUP(G25,#REF!,2,0)&amp;VLOOKUP(H25,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I25,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J25,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C25,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D25,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E25,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F25,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G25,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H25,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I25,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J25,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="6"/>
@@ -1062,8 +1253,8 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C26,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D26,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E26,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F26,#REF!,2,0)&amp;VLOOKUP(G26,#REF!,2,0)&amp;VLOOKUP(H26,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I26,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J26,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C26,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D26,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E26,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F26,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G26,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H26,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I26,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J26,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="6"/>
@@ -1080,8 +1271,8 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C27,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D27,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E27,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F27,#REF!,2,0)&amp;VLOOKUP(G27,#REF!,2,0)&amp;VLOOKUP(H27,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I27,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J27,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C27,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D27,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E27,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F27,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G27,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H27,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I27,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J27,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="6"/>
@@ -1098,8 +1289,8 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C28,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D28,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E28,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F28,#REF!,2,0)&amp;VLOOKUP(G28,#REF!,2,0)&amp;VLOOKUP(H28,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I28,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J28,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C28,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D28,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E28,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F28,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G28,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H28,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I28,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J28,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="6"/>
@@ -1116,8 +1307,8 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C29,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D29,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E29,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F29,#REF!,2,0)&amp;VLOOKUP(G29,#REF!,2,0)&amp;VLOOKUP(H29,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I29,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J29,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C29,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D29,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E29,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F29,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G29,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H29,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I29,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J29,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="6"/>
@@ -1134,8 +1325,8 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C30,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D30,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E30,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F30,#REF!,2,0)&amp;VLOOKUP(G30,#REF!,2,0)&amp;VLOOKUP(H30,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I30,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J30,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C30,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D30,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E30,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F30,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G30,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H30,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I30,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J30,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="6"/>
@@ -1152,8 +1343,8 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C31,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D31,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E31,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F31,#REF!,2,0)&amp;VLOOKUP(G31,#REF!,2,0)&amp;VLOOKUP(H31,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I31,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J31,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C31,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D31,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E31,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F31,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G31,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H31,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I31,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J31,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="6"/>
@@ -1170,8 +1361,8 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C32,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D32,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E32,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F32,#REF!,2,0)&amp;VLOOKUP(G32,#REF!,2,0)&amp;VLOOKUP(H32,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I32,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J32,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C32,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D32,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E32,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F32,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G32,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H32,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I32,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J32,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="6"/>
@@ -1188,8 +1379,8 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C33,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D33,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E33,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F33,#REF!,2,0)&amp;VLOOKUP(G33,#REF!,2,0)&amp;VLOOKUP(H33,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I33,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J33,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C33,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D33,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E33,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F33,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G33,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H33,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I33,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J33,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="6"/>
@@ -1206,8 +1397,8 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C34,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D34,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E34,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F34,#REF!,2,0)&amp;VLOOKUP(G34,#REF!,2,0)&amp;VLOOKUP(H34,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I34,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J34,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C34,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D34,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E34,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F34,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G34,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H34,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I34,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J34,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="6"/>
@@ -1224,8 +1415,8 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C35,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D35,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E35,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F35,#REF!,2,0)&amp;VLOOKUP(G35,#REF!,2,0)&amp;VLOOKUP(H35,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I35,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J35,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C35,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D35,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E35,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F35,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G35,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H35,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I35,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J35,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="6"/>
@@ -1242,8 +1433,8 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C36,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D36,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E36,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F36,#REF!,2,0)&amp;VLOOKUP(G36,#REF!,2,0)&amp;VLOOKUP(H36,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I36,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J36,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C36,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D36,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E36,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F36,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G36,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H36,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I36,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J36,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="6"/>
@@ -1260,8 +1451,8 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C37,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D37,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E37,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F37,#REF!,2,0)&amp;VLOOKUP(G37,#REF!,2,0)&amp;VLOOKUP(H37,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I37,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J37,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C37,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D37,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E37,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F37,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G37,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H37,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I37,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J37,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="6"/>
@@ -1278,8 +1469,8 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C38,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D38,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E38,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F38,#REF!,2,0)&amp;VLOOKUP(G38,#REF!,2,0)&amp;VLOOKUP(H38,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I38,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J38,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C38,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D38,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E38,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F38,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G38,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H38,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I38,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J38,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="6"/>
@@ -1296,8 +1487,8 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C39,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D39,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E39,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F39,#REF!,2,0)&amp;VLOOKUP(G39,#REF!,2,0)&amp;VLOOKUP(H39,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I39,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J39,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C39,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D39,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E39,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F39,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G39,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H39,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I39,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J39,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="6"/>
@@ -1314,8 +1505,8 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C40,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D40,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E40,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F40,#REF!,2,0)&amp;VLOOKUP(G40,#REF!,2,0)&amp;VLOOKUP(H40,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I40,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J40,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C40,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D40,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E40,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F40,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G40,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H40,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I40,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J40,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="6"/>
@@ -1332,8 +1523,8 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C41,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D41,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E41,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F41,#REF!,2,0)&amp;VLOOKUP(G41,#REF!,2,0)&amp;VLOOKUP(H41,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I41,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J41,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C41,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D41,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E41,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F41,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G41,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H41,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I41,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J41,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="6"/>
@@ -1350,8 +1541,8 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C42,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D42,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E42,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F42,#REF!,2,0)&amp;VLOOKUP(G42,#REF!,2,0)&amp;VLOOKUP(H42,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I42,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J42,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C42,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D42,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E42,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F42,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G42,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H42,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I42,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J42,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="6"/>
@@ -1368,8 +1559,8 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C43,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D43,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E43,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F43,#REF!,2,0)&amp;VLOOKUP(G43,#REF!,2,0)&amp;VLOOKUP(H43,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I43,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J43,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C43,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D43,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E43,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F43,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G43,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H43,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I43,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J43,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="6"/>
@@ -1386,8 +1577,8 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C44,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D44,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E44,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F44,#REF!,2,0)&amp;VLOOKUP(G44,#REF!,2,0)&amp;VLOOKUP(H44,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I44,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J44,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C44,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D44,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E44,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F44,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G44,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H44,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I44,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J44,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="6"/>
@@ -1404,8 +1595,8 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C45,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D45,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E45,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F45,#REF!,2,0)&amp;VLOOKUP(G45,#REF!,2,0)&amp;VLOOKUP(H45,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I45,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J45,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C45,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D45,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E45,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F45,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G45,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H45,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I45,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J45,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="6"/>
@@ -1422,8 +1613,8 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C46,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D46,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E46,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F46,#REF!,2,0)&amp;VLOOKUP(G46,#REF!,2,0)&amp;VLOOKUP(H46,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I46,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J46,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C46,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D46,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E46,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F46,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G46,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H46,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I46,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J46,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="6"/>
@@ -1440,8 +1631,8 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C47,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D47,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E47,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F47,#REF!,2,0)&amp;VLOOKUP(G47,#REF!,2,0)&amp;VLOOKUP(H47,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I47,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J47,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C47,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D47,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E47,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F47,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G47,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H47,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I47,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J47,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="6"/>
@@ -1458,8 +1649,8 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C48,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D48,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E48,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F48,#REF!,2,0)&amp;VLOOKUP(G48,#REF!,2,0)&amp;VLOOKUP(H48,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I48,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J48,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C48,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D48,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E48,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F48,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G48,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H48,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I48,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J48,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="6"/>
@@ -1476,8 +1667,8 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C49,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D49,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E49,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F49,#REF!,2,0)&amp;VLOOKUP(G49,#REF!,2,0)&amp;VLOOKUP(H49,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I49,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J49,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C49,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D49,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E49,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F49,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G49,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H49,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I49,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J49,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="6"/>
@@ -1494,8 +1685,8 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C50,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D50,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E50,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F50,#REF!,2,0)&amp;VLOOKUP(G50,#REF!,2,0)&amp;VLOOKUP(H50,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I50,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J50,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C50,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D50,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E50,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F50,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G50,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H50,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I50,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J50,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="6"/>
@@ -1512,8 +1703,8 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C51,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D51,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E51,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F51,#REF!,2,0)&amp;VLOOKUP(G51,#REF!,2,0)&amp;VLOOKUP(H51,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I51,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J51,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C51,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D51,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E51,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F51,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G51,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H51,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I51,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J51,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="6"/>
@@ -1530,8 +1721,8 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C52,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D52,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E52,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F52,#REF!,2,0)&amp;VLOOKUP(G52,#REF!,2,0)&amp;VLOOKUP(H52,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I52,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J52,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C52,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D52,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E52,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F52,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G52,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H52,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I52,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J52,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="6"/>
@@ -1548,8 +1739,8 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C53,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D53,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E53,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F53,#REF!,2,0)&amp;VLOOKUP(G53,#REF!,2,0)&amp;VLOOKUP(H53,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I53,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J53,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C53,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D53,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E53,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F53,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G53,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H53,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I53,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J53,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="6"/>
@@ -1566,8 +1757,8 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C54,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D54,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E54,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F54,#REF!,2,0)&amp;VLOOKUP(G54,#REF!,2,0)&amp;VLOOKUP(H54,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I54,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J54,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C54,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D54,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E54,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F54,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G54,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H54,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I54,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J54,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="6"/>
@@ -1584,8 +1775,8 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C55,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D55,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E55,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F55,#REF!,2,0)&amp;VLOOKUP(G55,#REF!,2,0)&amp;VLOOKUP(H55,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I55,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J55,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C55,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D55,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E55,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F55,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G55,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H55,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I55,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J55,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="6"/>
@@ -1602,8 +1793,8 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C56,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D56,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E56,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F56,#REF!,2,0)&amp;VLOOKUP(G56,#REF!,2,0)&amp;VLOOKUP(H56,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I56,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J56,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C56,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D56,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E56,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F56,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G56,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H56,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I56,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J56,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="6"/>
@@ -1620,8 +1811,8 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C57,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D57,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E57,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F57,#REF!,2,0)&amp;VLOOKUP(G57,#REF!,2,0)&amp;VLOOKUP(H57,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I57,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J57,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C57,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D57,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E57,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F57,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G57,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H57,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I57,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J57,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="6"/>
@@ -1638,8 +1829,8 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C58,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D58,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E58,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F58,#REF!,2,0)&amp;VLOOKUP(G58,#REF!,2,0)&amp;VLOOKUP(H58,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I58,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J58,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C58,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D58,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E58,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F58,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G58,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H58,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I58,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J58,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="6"/>
@@ -1656,8 +1847,8 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C59,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D59,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E59,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F59,#REF!,2,0)&amp;VLOOKUP(G59,#REF!,2,0)&amp;VLOOKUP(H59,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I59,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J59,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C59,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D59,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E59,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F59,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G59,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H59,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I59,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J59,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="6"/>
@@ -1674,8 +1865,8 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C60,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D60,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E60,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F60,#REF!,2,0)&amp;VLOOKUP(G60,#REF!,2,0)&amp;VLOOKUP(H60,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I60,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J60,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C60,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D60,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E60,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F60,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G60,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H60,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I60,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J60,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="6"/>
@@ -1692,8 +1883,8 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C61,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D61,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E61,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F61,#REF!,2,0)&amp;VLOOKUP(G61,#REF!,2,0)&amp;VLOOKUP(H61,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I61,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J61,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C61,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D61,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E61,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F61,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G61,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H61,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I61,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J61,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="6"/>
@@ -1710,8 +1901,8 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C62,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D62,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E62,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F62,#REF!,2,0)&amp;VLOOKUP(G62,#REF!,2,0)&amp;VLOOKUP(H62,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I62,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J62,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C62,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D62,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E62,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F62,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G62,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H62,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I62,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J62,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="6"/>
@@ -1728,8 +1919,8 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C63,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D63,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E63,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F63,#REF!,2,0)&amp;VLOOKUP(G63,#REF!,2,0)&amp;VLOOKUP(H63,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I63,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J63,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C63,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D63,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E63,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F63,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G63,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H63,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I63,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J63,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="6"/>
@@ -1746,8 +1937,8 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C64,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D64,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E64,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F64,#REF!,2,0)&amp;VLOOKUP(G64,#REF!,2,0)&amp;VLOOKUP(H64,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I64,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J64,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C64,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D64,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E64,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F64,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G64,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H64,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I64,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J64,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="6"/>
@@ -1764,8 +1955,8 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C65,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D65,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E65,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F65,#REF!,2,0)&amp;VLOOKUP(G65,#REF!,2,0)&amp;VLOOKUP(H65,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I65,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J65,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C65,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D65,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E65,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F65,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G65,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H65,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I65,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J65,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="6"/>
@@ -1782,8 +1973,8 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C66,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D66,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E66,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F66,#REF!,2,0)&amp;VLOOKUP(G66,#REF!,2,0)&amp;VLOOKUP(H66,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I66,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J66,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C66,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D66,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E66,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F66,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G66,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H66,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I66,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J66,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="6"/>
@@ -1800,8 +1991,8 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C67,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D67,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E67,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F67,#REF!,2,0)&amp;VLOOKUP(G67,#REF!,2,0)&amp;VLOOKUP(H67,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I67,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J67,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C67,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D67,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E67,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F67,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G67,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H67,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I67,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J67,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="6"/>
@@ -1818,8 +2009,8 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C68,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D68,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E68,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F68,#REF!,2,0)&amp;VLOOKUP(G68,#REF!,2,0)&amp;VLOOKUP(H68,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I68,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J68,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C68,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D68,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E68,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F68,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G68,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H68,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I68,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J68,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="6"/>
@@ -1836,8 +2027,8 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C69,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D69,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E69,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F69,#REF!,2,0)&amp;VLOOKUP(G69,#REF!,2,0)&amp;VLOOKUP(H69,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I69,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J69,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C69,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D69,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E69,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F69,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G69,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H69,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I69,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J69,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="6"/>
@@ -1854,8 +2045,8 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C70,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D70,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E70,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F70,#REF!,2,0)&amp;VLOOKUP(G70,#REF!,2,0)&amp;VLOOKUP(H70,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I70,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J70,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C70,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D70,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E70,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F70,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G70,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H70,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I70,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J70,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="6"/>
@@ -1872,8 +2063,8 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C71,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D71,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E71,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F71,#REF!,2,0)&amp;VLOOKUP(G71,#REF!,2,0)&amp;VLOOKUP(H71,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I71,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J71,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C71,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D71,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E71,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F71,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G71,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H71,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I71,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J71,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="6"/>
@@ -1890,8 +2081,8 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C72,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D72,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E72,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F72,#REF!,2,0)&amp;VLOOKUP(G72,#REF!,2,0)&amp;VLOOKUP(H72,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I72,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J72,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C72,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D72,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E72,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F72,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G72,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H72,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I72,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J72,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="6"/>
@@ -1908,8 +2099,8 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C73,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D73,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E73,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F73,#REF!,2,0)&amp;VLOOKUP(G73,#REF!,2,0)&amp;VLOOKUP(H73,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I73,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J73,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C73,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D73,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E73,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F73,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G73,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H73,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I73,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J73,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="6"/>
@@ -1926,8 +2117,8 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C74,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D74,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E74,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F74,#REF!,2,0)&amp;VLOOKUP(G74,#REF!,2,0)&amp;VLOOKUP(H74,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I74,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J74,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C74,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D74,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E74,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F74,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G74,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H74,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I74,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J74,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="6"/>
@@ -1944,8 +2135,8 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C75,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D75,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E75,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F75,#REF!,2,0)&amp;VLOOKUP(G75,#REF!,2,0)&amp;VLOOKUP(H75,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I75,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J75,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C75,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D75,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E75,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F75,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G75,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H75,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I75,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J75,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="6"/>
@@ -1962,8 +2153,8 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C76,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D76,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E76,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F76,#REF!,2,0)&amp;VLOOKUP(G76,#REF!,2,0)&amp;VLOOKUP(H76,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I76,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J76,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C76,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D76,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E76,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F76,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G76,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H76,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I76,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J76,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="6"/>
@@ -1980,8 +2171,8 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C77,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D77,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E77,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F77,#REF!,2,0)&amp;VLOOKUP(G77,#REF!,2,0)&amp;VLOOKUP(H77,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I77,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J77,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C77,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D77,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E77,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F77,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G77,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H77,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I77,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J77,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="6"/>
@@ -1998,8 +2189,8 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C78,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D78,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E78,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F78,#REF!,2,0)&amp;VLOOKUP(G78,#REF!,2,0)&amp;VLOOKUP(H78,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I78,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J78,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C78,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D78,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E78,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F78,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G78,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H78,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I78,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J78,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="6"/>
@@ -2016,8 +2207,8 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C79,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D79,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E79,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F79,#REF!,2,0)&amp;VLOOKUP(G79,#REF!,2,0)&amp;VLOOKUP(H79,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I79,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J79,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C79,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D79,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E79,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F79,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G79,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H79,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I79,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J79,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="6"/>
@@ -2034,8 +2225,8 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C80,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D80,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E80,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F80,#REF!,2,0)&amp;VLOOKUP(G80,#REF!,2,0)&amp;VLOOKUP(H80,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I80,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J80,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C80,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D80,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E80,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F80,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G80,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H80,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I80,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J80,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="6"/>
@@ -2052,8 +2243,8 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C81,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D81,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E81,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F81,#REF!,2,0)&amp;VLOOKUP(G81,#REF!,2,0)&amp;VLOOKUP(H81,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I81,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J81,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C81,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D81,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E81,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F81,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G81,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H81,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I81,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J81,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="6"/>
@@ -2070,8 +2261,8 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C82,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D82,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E82,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F82,#REF!,2,0)&amp;VLOOKUP(G82,#REF!,2,0)&amp;VLOOKUP(H82,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I82,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J82,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C82,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D82,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E82,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F82,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G82,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H82,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I82,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J82,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="6"/>
@@ -2088,8 +2279,8 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C83,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D83,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E83,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F83,#REF!,2,0)&amp;VLOOKUP(G83,#REF!,2,0)&amp;VLOOKUP(H83,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I83,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J83,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C83,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D83,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E83,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F83,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G83,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H83,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I83,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J83,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="6"/>
@@ -2106,8 +2297,8 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C84,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D84,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E84,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F84,#REF!,2,0)&amp;VLOOKUP(G84,#REF!,2,0)&amp;VLOOKUP(H84,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I84,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J84,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C84,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D84,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E84,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F84,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G84,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H84,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I84,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J84,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="6"/>
@@ -2124,8 +2315,8 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C85,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D85,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E85,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F85,#REF!,2,0)&amp;VLOOKUP(G85,#REF!,2,0)&amp;VLOOKUP(H85,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I85,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J85,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C85,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D85,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E85,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F85,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G85,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H85,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I85,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J85,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="6"/>
@@ -2142,8 +2333,8 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C86,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D86,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E86,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F86,#REF!,2,0)&amp;VLOOKUP(G86,#REF!,2,0)&amp;VLOOKUP(H86,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I86,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J86,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C86,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D86,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E86,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F86,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G86,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H86,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I86,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J86,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="6"/>
@@ -2160,8 +2351,8 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C87,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D87,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E87,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F87,#REF!,2,0)&amp;VLOOKUP(G87,#REF!,2,0)&amp;VLOOKUP(H87,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I87,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J87,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C87,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D87,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E87,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F87,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G87,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H87,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I87,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J87,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="6"/>
@@ -2178,8 +2369,8 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C88,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D88,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E88,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F88,#REF!,2,0)&amp;VLOOKUP(G88,#REF!,2,0)&amp;VLOOKUP(H88,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I88,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J88,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C88,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D88,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E88,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F88,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G88,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H88,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I88,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J88,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="6"/>
@@ -2196,8 +2387,8 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C89,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D89,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E89,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F89,#REF!,2,0)&amp;VLOOKUP(G89,#REF!,2,0)&amp;VLOOKUP(H89,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I89,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J89,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C89,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D89,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E89,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F89,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G89,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H89,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I89,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J89,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="6"/>
@@ -2214,8 +2405,8 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C90,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D90,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E90,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F90,#REF!,2,0)&amp;VLOOKUP(G90,#REF!,2,0)&amp;VLOOKUP(H90,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I90,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J90,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C90,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D90,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E90,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F90,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G90,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H90,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I90,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J90,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="6"/>
@@ -2232,8 +2423,8 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C91,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D91,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E91,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F91,#REF!,2,0)&amp;VLOOKUP(G91,#REF!,2,0)&amp;VLOOKUP(H91,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I91,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J91,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C91,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D91,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E91,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F91,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G91,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H91,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I91,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J91,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="6"/>
@@ -2250,8 +2441,8 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C92,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D92,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E92,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F92,#REF!,2,0)&amp;VLOOKUP(G92,#REF!,2,0)&amp;VLOOKUP(H92,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I92,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J92,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C92,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D92,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E92,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F92,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G92,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H92,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I92,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J92,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="6"/>
@@ -2268,8 +2459,8 @@
         <v>92</v>
       </c>
       <c r="B93" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C93,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D93,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E93,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F93,#REF!,2,0)&amp;VLOOKUP(G93,#REF!,2,0)&amp;VLOOKUP(H93,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I93,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J93,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C93,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D93,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E93,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F93,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G93,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H93,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I93,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J93,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="6"/>
@@ -2286,8 +2477,8 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C94,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D94,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E94,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F94,#REF!,2,0)&amp;VLOOKUP(G94,#REF!,2,0)&amp;VLOOKUP(H94,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I94,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J94,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C94,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D94,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E94,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F94,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G94,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H94,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I94,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J94,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="6"/>
@@ -2304,8 +2495,8 @@
         <v>94</v>
       </c>
       <c r="B95" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C95,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D95,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E95,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F95,#REF!,2,0)&amp;VLOOKUP(G95,#REF!,2,0)&amp;VLOOKUP(H95,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I95,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J95,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C95,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D95,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E95,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F95,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G95,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H95,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I95,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J95,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="6"/>
@@ -2322,8 +2513,8 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C96,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D96,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E96,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F96,#REF!,2,0)&amp;VLOOKUP(G96,#REF!,2,0)&amp;VLOOKUP(H96,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I96,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J96,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C96,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D96,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E96,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F96,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G96,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H96,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I96,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J96,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="6"/>
@@ -2340,8 +2531,8 @@
         <v>96</v>
       </c>
       <c r="B97" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C97,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D97,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E97,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F97,#REF!,2,0)&amp;VLOOKUP(G97,#REF!,2,0)&amp;VLOOKUP(H97,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I97,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J97,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C97,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D97,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E97,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F97,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G97,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H97,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I97,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J97,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="6"/>
@@ -2358,8 +2549,8 @@
         <v>97</v>
       </c>
       <c r="B98" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C98,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D98,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E98,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F98,#REF!,2,0)&amp;VLOOKUP(G98,#REF!,2,0)&amp;VLOOKUP(H98,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I98,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J98,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C98,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D98,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E98,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F98,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G98,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H98,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I98,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J98,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="6"/>
@@ -2376,8 +2567,8 @@
         <v>98</v>
       </c>
       <c r="B99" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C99,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D99,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E99,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F99,#REF!,2,0)&amp;VLOOKUP(G99,#REF!,2,0)&amp;VLOOKUP(H99,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I99,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J99,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C99,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D99,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E99,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F99,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G99,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H99,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I99,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J99,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="6"/>
@@ -2394,8 +2585,8 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C100,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D100,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E100,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F100,#REF!,2,0)&amp;VLOOKUP(G100,#REF!,2,0)&amp;VLOOKUP(H100,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I100,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J100,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C100,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D100,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E100,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F100,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G100,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H100,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I100,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J100,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="6"/>
@@ -2412,8 +2603,8 @@
         <v>100</v>
       </c>
       <c r="B101" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C101,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D101,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E101,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F101,#REF!,2,0)&amp;VLOOKUP(G101,#REF!,2,0)&amp;VLOOKUP(H101,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I101,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J101,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C101,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D101,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E101,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F101,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G101,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H101,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I101,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J101,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="6"/>
@@ -2430,8 +2621,8 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C102,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D102,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E102,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F102,#REF!,2,0)&amp;VLOOKUP(G102,#REF!,2,0)&amp;VLOOKUP(H102,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I102,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J102,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C102,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D102,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E102,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F102,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G102,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H102,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I102,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J102,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="6"/>
@@ -2448,8 +2639,8 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C103,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D103,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E103,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F103,#REF!,2,0)&amp;VLOOKUP(G103,#REF!,2,0)&amp;VLOOKUP(H103,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I103,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J103,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C103,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D103,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E103,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F103,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G103,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H103,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I103,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J103,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="6"/>
@@ -2466,8 +2657,8 @@
         <v>103</v>
       </c>
       <c r="B104" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C104,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D104,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E104,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F104,#REF!,2,0)&amp;VLOOKUP(G104,#REF!,2,0)&amp;VLOOKUP(H104,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I104,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J104,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C104,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D104,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E104,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F104,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G104,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H104,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I104,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J104,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="6"/>
@@ -2484,8 +2675,8 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C105,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D105,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E105,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F105,#REF!,2,0)&amp;VLOOKUP(G105,#REF!,2,0)&amp;VLOOKUP(H105,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I105,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J105,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C105,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D105,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E105,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F105,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G105,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H105,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I105,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J105,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="6"/>
@@ -2502,8 +2693,8 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C106,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D106,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E106,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F106,#REF!,2,0)&amp;VLOOKUP(G106,#REF!,2,0)&amp;VLOOKUP(H106,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I106,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J106,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C106,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D106,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E106,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F106,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G106,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H106,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I106,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J106,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="6"/>
@@ -2520,8 +2711,8 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C107,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D107,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E107,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F107,#REF!,2,0)&amp;VLOOKUP(G107,#REF!,2,0)&amp;VLOOKUP(H107,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I107,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J107,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C107,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D107,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E107,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F107,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G107,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H107,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I107,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J107,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C107" s="11"/>
       <c r="D107" s="6"/>
@@ -2538,8 +2729,8 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C108,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D108,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E108,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F108,#REF!,2,0)&amp;VLOOKUP(G108,#REF!,2,0)&amp;VLOOKUP(H108,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I108,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J108,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C108,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D108,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E108,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F108,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G108,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H108,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I108,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J108,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="6"/>
@@ -2556,8 +2747,8 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C109,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D109,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E109,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F109,#REF!,2,0)&amp;VLOOKUP(G109,#REF!,2,0)&amp;VLOOKUP(H109,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I109,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J109,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C109,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D109,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E109,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F109,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G109,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H109,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I109,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J109,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C109" s="11"/>
       <c r="D109" s="6"/>
@@ -2574,8 +2765,8 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C110,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D110,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E110,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F110,#REF!,2,0)&amp;VLOOKUP(G110,#REF!,2,0)&amp;VLOOKUP(H110,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I110,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J110,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C110,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D110,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E110,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F110,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G110,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H110,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I110,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J110,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="6"/>
@@ -2592,8 +2783,8 @@
         <v>110</v>
       </c>
       <c r="B111" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C111,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D111,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E111,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F111,#REF!,2,0)&amp;VLOOKUP(G111,#REF!,2,0)&amp;VLOOKUP(H111,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I111,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J111,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C111,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D111,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E111,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F111,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G111,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H111,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I111,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J111,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="6"/>
@@ -2610,8 +2801,8 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C112,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D112,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E112,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F112,#REF!,2,0)&amp;VLOOKUP(G112,#REF!,2,0)&amp;VLOOKUP(H112,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I112,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J112,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C112,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D112,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E112,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F112,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G112,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H112,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I112,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J112,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="6"/>
@@ -2628,8 +2819,8 @@
         <v>112</v>
       </c>
       <c r="B113" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C113,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D113,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E113,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F113,#REF!,2,0)&amp;VLOOKUP(G113,#REF!,2,0)&amp;VLOOKUP(H113,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I113,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J113,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C113,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D113,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E113,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F113,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G113,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H113,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I113,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J113,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C113" s="11"/>
       <c r="D113" s="6"/>
@@ -2646,8 +2837,8 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C114,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D114,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E114,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F114,#REF!,2,0)&amp;VLOOKUP(G114,#REF!,2,0)&amp;VLOOKUP(H114,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I114,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J114,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C114,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D114,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E114,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F114,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G114,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H114,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I114,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J114,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="6"/>
@@ -2664,8 +2855,8 @@
         <v>114</v>
       </c>
       <c r="B115" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C115,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D115,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E115,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F115,#REF!,2,0)&amp;VLOOKUP(G115,#REF!,2,0)&amp;VLOOKUP(H115,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I115,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J115,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C115,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D115,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E115,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F115,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G115,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H115,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I115,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J115,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C115" s="11"/>
       <c r="D115" s="6"/>
@@ -2682,8 +2873,8 @@
         <v>115</v>
       </c>
       <c r="B116" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C116,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D116,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E116,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F116,#REF!,2,0)&amp;VLOOKUP(G116,#REF!,2,0)&amp;VLOOKUP(H116,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I116,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J116,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C116,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D116,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E116,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F116,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G116,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H116,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I116,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J116,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="6"/>
@@ -2700,8 +2891,8 @@
         <v>116</v>
       </c>
       <c r="B117" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C117,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D117,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E117,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F117,#REF!,2,0)&amp;VLOOKUP(G117,#REF!,2,0)&amp;VLOOKUP(H117,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I117,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J117,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C117,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D117,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E117,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F117,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G117,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H117,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I117,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J117,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C117" s="11"/>
       <c r="D117" s="6"/>
@@ -2718,8 +2909,8 @@
         <v>117</v>
       </c>
       <c r="B118" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C118,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D118,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E118,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F118,#REF!,2,0)&amp;VLOOKUP(G118,#REF!,2,0)&amp;VLOOKUP(H118,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I118,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J118,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C118,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D118,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E118,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F118,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G118,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H118,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I118,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J118,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="6"/>
@@ -2736,8 +2927,8 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C119,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D119,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E119,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F119,#REF!,2,0)&amp;VLOOKUP(G119,#REF!,2,0)&amp;VLOOKUP(H119,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I119,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J119,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C119,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D119,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E119,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F119,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G119,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H119,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I119,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J119,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C119" s="11"/>
       <c r="D119" s="6"/>
@@ -2754,8 +2945,8 @@
         <v>119</v>
       </c>
       <c r="B120" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C120,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D120,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E120,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F120,#REF!,2,0)&amp;VLOOKUP(G120,#REF!,2,0)&amp;VLOOKUP(H120,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I120,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J120,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C120,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D120,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E120,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F120,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G120,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H120,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I120,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J120,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="6"/>
@@ -2772,8 +2963,8 @@
         <v>120</v>
       </c>
       <c r="B121" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C121,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D121,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E121,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F121,#REF!,2,0)&amp;VLOOKUP(G121,#REF!,2,0)&amp;VLOOKUP(H121,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I121,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J121,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C121,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D121,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E121,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F121,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G121,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H121,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I121,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J121,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C121" s="11"/>
       <c r="D121" s="6"/>
@@ -2790,8 +2981,8 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C122,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D122,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E122,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F122,#REF!,2,0)&amp;VLOOKUP(G122,#REF!,2,0)&amp;VLOOKUP(H122,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I122,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J122,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C122,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D122,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E122,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F122,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G122,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H122,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I122,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J122,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="6"/>
@@ -2808,8 +2999,8 @@
         <v>122</v>
       </c>
       <c r="B123" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C123,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D123,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E123,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F123,#REF!,2,0)&amp;VLOOKUP(G123,#REF!,2,0)&amp;VLOOKUP(H123,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I123,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J123,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C123,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D123,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E123,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F123,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G123,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H123,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I123,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J123,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C123" s="11"/>
       <c r="D123" s="6"/>
@@ -2826,8 +3017,8 @@
         <v>123</v>
       </c>
       <c r="B124" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C124,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D124,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E124,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F124,#REF!,2,0)&amp;VLOOKUP(G124,#REF!,2,0)&amp;VLOOKUP(H124,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I124,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J124,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C124,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D124,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E124,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F124,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G124,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H124,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I124,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J124,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="6"/>
@@ -2844,8 +3035,8 @@
         <v>124</v>
       </c>
       <c r="B125" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C125,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D125,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E125,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F125,#REF!,2,0)&amp;VLOOKUP(G125,#REF!,2,0)&amp;VLOOKUP(H125,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I125,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J125,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C125,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D125,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E125,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F125,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G125,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H125,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I125,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J125,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C125" s="11"/>
       <c r="D125" s="6"/>
@@ -2862,8 +3053,8 @@
         <v>125</v>
       </c>
       <c r="B126" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C126,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D126,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E126,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F126,#REF!,2,0)&amp;VLOOKUP(G126,#REF!,2,0)&amp;VLOOKUP(H126,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I126,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J126,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C126,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D126,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E126,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F126,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G126,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H126,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I126,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J126,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="6"/>
@@ -2880,8 +3071,8 @@
         <v>126</v>
       </c>
       <c r="B127" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C127,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D127,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E127,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F127,#REF!,2,0)&amp;VLOOKUP(G127,#REF!,2,0)&amp;VLOOKUP(H127,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I127,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J127,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C127,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D127,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E127,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F127,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G127,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H127,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I127,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J127,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C127" s="11"/>
       <c r="D127" s="6"/>
@@ -2898,8 +3089,8 @@
         <v>127</v>
       </c>
       <c r="B128" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C128,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D128,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E128,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F128,#REF!,2,0)&amp;VLOOKUP(G128,#REF!,2,0)&amp;VLOOKUP(H128,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I128,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J128,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C128,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D128,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E128,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F128,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G128,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H128,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I128,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J128,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="6"/>
@@ -2916,8 +3107,8 @@
         <v>128</v>
       </c>
       <c r="B129" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C129,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D129,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E129,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F129,#REF!,2,0)&amp;VLOOKUP(G129,#REF!,2,0)&amp;VLOOKUP(H129,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I129,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J129,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C129,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D129,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E129,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F129,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G129,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H129,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I129,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J129,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C129" s="11"/>
       <c r="D129" s="6"/>
@@ -2934,8 +3125,8 @@
         <v>129</v>
       </c>
       <c r="B130" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C130,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D130,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E130,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F130,#REF!,2,0)&amp;VLOOKUP(G130,#REF!,2,0)&amp;VLOOKUP(H130,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I130,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J130,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C130,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D130,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E130,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F130,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G130,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H130,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I130,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J130,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="6"/>
@@ -2952,8 +3143,8 @@
         <v>130</v>
       </c>
       <c r="B131" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C131,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D131,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E131,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F131,#REF!,2,0)&amp;VLOOKUP(G131,#REF!,2,0)&amp;VLOOKUP(H131,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I131,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J131,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C131,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D131,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E131,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F131,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G131,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H131,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I131,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J131,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C131" s="11"/>
       <c r="D131" s="6"/>
@@ -2970,8 +3161,8 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C132,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D132,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E132,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F132,#REF!,2,0)&amp;VLOOKUP(G132,#REF!,2,0)&amp;VLOOKUP(H132,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I132,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J132,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C132,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D132,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E132,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F132,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G132,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H132,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I132,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J132,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C132" s="11"/>
       <c r="D132" s="6"/>
@@ -2988,8 +3179,8 @@
         <v>132</v>
       </c>
       <c r="B133" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C133,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D133,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E133,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F133,#REF!,2,0)&amp;VLOOKUP(G133,#REF!,2,0)&amp;VLOOKUP(H133,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I133,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J133,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C133,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D133,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E133,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F133,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G133,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H133,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I133,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J133,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C133" s="11"/>
       <c r="D133" s="6"/>
@@ -3006,8 +3197,8 @@
         <v>133</v>
       </c>
       <c r="B134" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C134,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D134,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E134,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F134,#REF!,2,0)&amp;VLOOKUP(G134,#REF!,2,0)&amp;VLOOKUP(H134,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I134,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J134,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C134,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D134,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E134,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F134,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G134,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H134,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I134,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J134,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="6"/>
@@ -3024,8 +3215,8 @@
         <v>134</v>
       </c>
       <c r="B135" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C135,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D135,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E135,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F135,#REF!,2,0)&amp;VLOOKUP(G135,#REF!,2,0)&amp;VLOOKUP(H135,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I135,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J135,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C135,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D135,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E135,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F135,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G135,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H135,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I135,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J135,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C135" s="11"/>
       <c r="D135" s="6"/>
@@ -3042,8 +3233,8 @@
         <v>135</v>
       </c>
       <c r="B136" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C136,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D136,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E136,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F136,#REF!,2,0)&amp;VLOOKUP(G136,#REF!,2,0)&amp;VLOOKUP(H136,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I136,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J136,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C136,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D136,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E136,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F136,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G136,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H136,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I136,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J136,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="6"/>
@@ -3060,8 +3251,8 @@
         <v>136</v>
       </c>
       <c r="B137" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C137,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D137,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E137,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F137,#REF!,2,0)&amp;VLOOKUP(G137,#REF!,2,0)&amp;VLOOKUP(H137,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I137,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J137,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C137,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D137,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E137,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F137,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G137,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H137,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I137,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J137,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C137" s="11"/>
       <c r="D137" s="6"/>
@@ -3078,8 +3269,8 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C138,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D138,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E138,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F138,#REF!,2,0)&amp;VLOOKUP(G138,#REF!,2,0)&amp;VLOOKUP(H138,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I138,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J138,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C138,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D138,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E138,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F138,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G138,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H138,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I138,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J138,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="6"/>
@@ -3096,8 +3287,8 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C139,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D139,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E139,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F139,#REF!,2,0)&amp;VLOOKUP(G139,#REF!,2,0)&amp;VLOOKUP(H139,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I139,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J139,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C139,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D139,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E139,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F139,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G139,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H139,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I139,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J139,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="6"/>
@@ -3114,8 +3305,8 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C140,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D140,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E140,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F140,#REF!,2,0)&amp;VLOOKUP(G140,#REF!,2,0)&amp;VLOOKUP(H140,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I140,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J140,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C140,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D140,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E140,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F140,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G140,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H140,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I140,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J140,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="6"/>
@@ -3132,8 +3323,8 @@
         <v>140</v>
       </c>
       <c r="B141" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C141,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D141,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E141,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F141,#REF!,2,0)&amp;VLOOKUP(G141,#REF!,2,0)&amp;VLOOKUP(H141,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I141,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J141,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C141,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D141,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E141,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F141,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G141,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H141,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I141,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J141,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C141" s="11"/>
       <c r="D141" s="6"/>
@@ -3150,8 +3341,8 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C142,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D142,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E142,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F142,#REF!,2,0)&amp;VLOOKUP(G142,#REF!,2,0)&amp;VLOOKUP(H142,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I142,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J142,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C142,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D142,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E142,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F142,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G142,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H142,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I142,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J142,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C142" s="11"/>
       <c r="D142" s="6"/>
@@ -3168,8 +3359,8 @@
         <v>142</v>
       </c>
       <c r="B143" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C143,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D143,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E143,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F143,#REF!,2,0)&amp;VLOOKUP(G143,#REF!,2,0)&amp;VLOOKUP(H143,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I143,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J143,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C143,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D143,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E143,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F143,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G143,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H143,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I143,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J143,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C143" s="11"/>
       <c r="D143" s="6"/>
@@ -3186,8 +3377,8 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C144,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D144,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E144,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F144,#REF!,2,0)&amp;VLOOKUP(G144,#REF!,2,0)&amp;VLOOKUP(H144,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I144,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J144,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C144,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D144,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E144,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F144,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G144,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H144,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I144,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J144,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C144" s="11"/>
       <c r="D144" s="6"/>
@@ -3204,8 +3395,8 @@
         <v>144</v>
       </c>
       <c r="B145" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C145,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D145,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E145,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F145,#REF!,2,0)&amp;VLOOKUP(G145,#REF!,2,0)&amp;VLOOKUP(H145,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I145,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J145,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C145,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D145,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E145,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F145,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G145,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H145,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I145,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J145,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C145" s="11"/>
       <c r="D145" s="6"/>
@@ -3222,8 +3413,8 @@
         <v>145</v>
       </c>
       <c r="B146" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C146,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D146,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E146,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F146,#REF!,2,0)&amp;VLOOKUP(G146,#REF!,2,0)&amp;VLOOKUP(H146,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I146,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J146,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C146,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D146,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E146,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F146,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G146,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H146,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I146,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J146,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C146" s="11"/>
       <c r="D146" s="6"/>
@@ -3240,8 +3431,8 @@
         <v>146</v>
       </c>
       <c r="B147" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C147,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D147,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E147,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F147,#REF!,2,0)&amp;VLOOKUP(G147,#REF!,2,0)&amp;VLOOKUP(H147,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I147,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J147,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C147,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D147,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E147,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F147,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G147,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H147,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I147,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J147,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C147" s="11"/>
       <c r="D147" s="6"/>
@@ -3258,8 +3449,8 @@
         <v>147</v>
       </c>
       <c r="B148" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C148,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D148,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E148,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F148,#REF!,2,0)&amp;VLOOKUP(G148,#REF!,2,0)&amp;VLOOKUP(H148,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I148,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J148,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C148,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D148,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E148,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F148,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G148,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H148,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I148,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J148,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="6"/>
@@ -3276,8 +3467,8 @@
         <v>148</v>
       </c>
       <c r="B149" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C149,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D149,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E149,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F149,#REF!,2,0)&amp;VLOOKUP(G149,#REF!,2,0)&amp;VLOOKUP(H149,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I149,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J149,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C149,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D149,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E149,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F149,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G149,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H149,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I149,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J149,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C149" s="11"/>
       <c r="D149" s="6"/>
@@ -3294,8 +3485,8 @@
         <v>149</v>
       </c>
       <c r="B150" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C150,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D150,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E150,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F150,#REF!,2,0)&amp;VLOOKUP(G150,#REF!,2,0)&amp;VLOOKUP(H150,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I150,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J150,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C150,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D150,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E150,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F150,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G150,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H150,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I150,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J150,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C150" s="11"/>
       <c r="D150" s="6"/>
@@ -3312,8 +3503,8 @@
         <v>150</v>
       </c>
       <c r="B151" s="7" t="e">
-        <f aca="false">"LT"&amp;VLOOKUP(C151,#REF!,2,0)&amp;"-"&amp;VLOOKUP(D151,#REF!,2,0)&amp;"-"&amp;VLOOKUP(E151,#REF!,2,0)&amp;"-"&amp;VLOOKUP(F151,#REF!,2,0)&amp;VLOOKUP(G151,#REF!,2,0)&amp;VLOOKUP(H151,#REF!,2,0)&amp;"-"&amp;VLOOKUP(I151,#REF!,2,0)&amp;"-"&amp;VLOOKUP(J151,#REF!,2,0)</f>
-        <v>#REF!</v>
+        <f aca="false">"LT"&amp;VLOOKUP(C151,'Kodlama Listesi'!B:C,2,0)&amp;"-"&amp;VLOOKUP(D151,'Kodlama Listesi'!D:E,2,0)&amp;"-"&amp;VLOOKUP(E151,'Kodlama Listesi'!F:G,2,0)&amp;"-"&amp;VLOOKUP(F151,'Kodlama Listesi'!H:I,2,0)&amp;VLOOKUP(G151,'Kodlama Listesi'!J:K,2,0)&amp;VLOOKUP(H151,'Kodlama Listesi'!L:M,2,0)&amp;"-"&amp;VLOOKUP(I151,'Kodlama Listesi'!N:O,2,0)&amp;"-"&amp;VLOOKUP(J151,'Kodlama Listesi'!P:Q,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="C151" s="11"/>
       <c r="D151" s="6"/>
@@ -3329,35 +3520,35 @@
   <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <dataValidations count="8">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D7 D10:D1151" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>'Kodlama Listesi'!$D$4:$D$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E7 E10:E1151" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>'Kodlama Listesi'!$F$4:$F$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F7 F10:F1151" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>'Kodlama Listesi'!$H$4:$H$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G7 G10:G1151" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>'Kodlama Listesi'!$J$4:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H7 H10:H1151" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>'Kodlama Listesi'!$L$4:$L$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I2:I7 I10:I1151" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>'Kodlama Listesi'!$N$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C1151" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>'Kodlama Listesi'!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J2:J1151" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>'Kodlama Listesi'!$P$4:$P$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3369,4 +3560,471 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Sayfa &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.4453125" defaultRowHeight="21" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="5.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="20.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="12" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="13" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="12" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="13" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="12" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="13" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="12" width="12.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="13" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="12" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="13" width="6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="12" width="15.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="13" width="6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="18" style="12" width="15.44"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C1011 M4:M1011 O4:O1011" type="custom">
+      <formula1>AND(COUNTIF(C:C,C4)=1, LEN(C4)=2 )</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:E1011 G4:G1011" type="custom">
+      <formula1>AND(COUNTIF(E:E,E4)=1, LEN(E4)=3 )</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I4:I1011 K4:K1011 Q4:Q1011" type="custom">
+      <formula1>AND(COUNTIF(I:I,I4)=1, LEN(I4)=1 )</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/pages/aydinlatma.xlsx
+++ b/pages/aydinlatma.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="72">
   <si>
     <t xml:space="preserve">Sıra</t>
   </si>
@@ -98,121 +98,100 @@
     <t xml:space="preserve">Led Array</t>
   </si>
   <si>
+    <t xml:space="preserve">Model Bilgisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kullanım Yerleri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Grup Adı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bağlantı Türü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buzzer Durumu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Rev. Bilgisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kodu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kablolu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sürekli Aktif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapıüstü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
     <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Bilgisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kullanım Yerleri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Grup Adı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bağlantı Türü</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buzzer Durumu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Major Rev. Bilgisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kodu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kablolu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sürekli Aktif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapıüstü</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
   </si>
   <si>
     <t xml:space="preserve">Tek Seferlik</t>
@@ -3567,10 +3546,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="B2:Q11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.4453125" defaultRowHeight="21" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3595,76 +3574,17 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="18" style="12" width="15.44"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="12" t="n">
-        <v>14</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="12" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
@@ -3672,11 +3592,11 @@
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M2" s="14"/>
       <c r="N2" s="14" t="s">
@@ -3684,58 +3604,58 @@
       </c>
       <c r="O2" s="14"/>
       <c r="P2" s="14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3743,49 +3663,49 @@
         <v>11</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="L4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="P4" s="17" t="s">
         <v>17</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3793,45 +3713,45 @@
         <v>18</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N5" s="17"/>
       <c r="O5" s="18"/>
       <c r="P5" s="17" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3839,61 +3759,61 @@
         <v>19</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="18"/>
       <c r="P6" s="17" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
       <c r="D7" s="17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
@@ -3910,10 +3830,10 @@
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
       <c r="D8" s="17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="18"/>
@@ -3932,10 +3852,10 @@
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
       <c r="D9" s="17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
@@ -3954,10 +3874,10 @@
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
       <c r="D10" s="17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="18"/>
@@ -3976,10 +3896,10 @@
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
